--- a/Milestone 4/Scrum/Burndown Chart Scrum.xlsx
+++ b/Milestone 4/Scrum/Burndown Chart Scrum.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jadag\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C8BC15-5324-4FC4-AB89-F25351CE2720}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{73FDE7BF-14FC-4E76-902D-FF27C4C63E54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A0B4793C-C886-4EE5-9BA1-F81E950BCE1D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCRUM CYCLE 1" sheetId="3" r:id="rId1"/>
-    <sheet name="SCRUM CYCLE 2" sheetId="1" r:id="rId2"/>
-    <sheet name="SCRUM CYCLE 3" sheetId="2" r:id="rId3"/>
+    <sheet name="SPRINT CYCLE 1" sheetId="3" r:id="rId1"/>
+    <sheet name="SPRINT CYCLE 2" sheetId="1" r:id="rId2"/>
+    <sheet name="SPRINT CYCLE 3" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Length" localSheetId="0">'SCRUM CYCLE 1'!$L$6</definedName>
-    <definedName name="Length" localSheetId="2">'SCRUM CYCLE 3'!$L$6</definedName>
-    <definedName name="Length">'SCRUM CYCLE 2'!$L$6</definedName>
-    <definedName name="S1ExpHours" localSheetId="0">'SCRUM CYCLE 1'!#REF!</definedName>
-    <definedName name="S1ExpHours" localSheetId="2">'SCRUM CYCLE 3'!#REF!</definedName>
-    <definedName name="S1ExpHours">'SCRUM CYCLE 2'!#REF!</definedName>
+    <definedName name="Length" localSheetId="0">'SPRINT CYCLE 1'!$L$6</definedName>
+    <definedName name="Length" localSheetId="2">'SPRINT CYCLE 3'!$L$6</definedName>
+    <definedName name="Length">'SPRINT CYCLE 2'!$L$6</definedName>
+    <definedName name="S1ExpHours" localSheetId="0">'SPRINT CYCLE 1'!#REF!</definedName>
+    <definedName name="S1ExpHours" localSheetId="2">'SPRINT CYCLE 3'!#REF!</definedName>
+    <definedName name="S1ExpHours">'SPRINT CYCLE 2'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,60 +41,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="76">
+  <si>
+    <t>S C R U M   P L A N N I N G</t>
+  </si>
   <si>
     <t>DATE</t>
+  </si>
+  <si>
+    <t>HOURS LEFT</t>
   </si>
   <si>
     <t>ESTIMATE</t>
   </si>
   <si>
-    <t>HOURS LEFT</t>
+    <t>Group Members</t>
+  </si>
+  <si>
+    <t>Hrs in Total</t>
+  </si>
+  <si>
+    <t>12hrs wk</t>
+  </si>
+  <si>
+    <t>S P R I N T  # 1</t>
   </si>
   <si>
     <t>Laurel</t>
   </si>
   <si>
-    <t>Mathew</t>
-  </si>
-  <si>
-    <t>Dalton</t>
-  </si>
-  <si>
-    <t>Jada</t>
-  </si>
-  <si>
-    <t>Lydelle</t>
-  </si>
-  <si>
-    <t>Start Date:</t>
-  </si>
-  <si>
-    <t>Sprint Length</t>
-  </si>
-  <si>
-    <t>Hours Per Day:</t>
-  </si>
-  <si>
-    <t>4 days</t>
-  </si>
-  <si>
-    <t>Sprint Number: 1</t>
-  </si>
-  <si>
-    <t>Hrs in Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End Date: </t>
-  </si>
-  <si>
-    <t>Sprint Number: 2</t>
-  </si>
-  <si>
-    <t>Sprint Number: 3</t>
-  </si>
-  <si>
-    <t>12hrs wk</t>
+    <t>USER STORIES</t>
   </si>
   <si>
     <t>TASKS</t>
@@ -103,7 +79,16 @@
     <t>PRIORITY</t>
   </si>
   <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>Mathew</t>
+  </si>
+  <si>
     <t>As a user I should be able to view the menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Menu Appetizer items to local db </t>
   </si>
   <si>
     <t>high</t>
@@ -112,28 +97,19 @@
     <t>Done</t>
   </si>
   <si>
-    <t>Group Members</t>
-  </si>
-  <si>
-    <t>S P R I N T  # 1</t>
-  </si>
-  <si>
-    <t>NOTES</t>
-  </si>
-  <si>
-    <t>USER STORIES</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add Menu Appetizer items to local db </t>
+    <t>Lydelle</t>
   </si>
   <si>
     <t>Add Menu Entrees items to local db</t>
   </si>
   <si>
+    <t>Dalton</t>
+  </si>
+  <si>
     <t xml:space="preserve">Add Menu Desserts items to local db </t>
+  </si>
+  <si>
+    <t>Jada</t>
   </si>
   <si>
     <t>Add Menu Drinks items to local db</t>
@@ -148,16 +124,40 @@
     <t xml:space="preserve"> Add functionality to view desserts </t>
   </si>
   <si>
+    <t xml:space="preserve">Add functionality to view drinks Create home screen </t>
+  </si>
+  <si>
+    <t>Sprint Number: 1</t>
+  </si>
+  <si>
     <t>Add functionality to the homescreen appetizers button</t>
+  </si>
+  <si>
+    <t>Start Date:</t>
   </si>
   <si>
     <t>Add functionality to the homescreen main course button</t>
   </si>
   <si>
+    <t xml:space="preserve">End Date: </t>
+  </si>
+  <si>
     <t xml:space="preserve">Add functionality to the homescreen desserts button </t>
   </si>
   <si>
+    <t>Sprint Length</t>
+  </si>
+  <si>
+    <t>4 days</t>
+  </si>
+  <si>
     <t xml:space="preserve">Add functionality to the homescreen drinks button </t>
+  </si>
+  <si>
+    <t>Hours Per Day:</t>
+  </si>
+  <si>
+    <t>4hrs</t>
   </si>
   <si>
     <t xml:space="preserve">Add functionality to the homescreen call waiter button </t>
@@ -172,70 +172,40 @@
     <t>Adjust the homescreen layout</t>
   </si>
   <si>
-    <t xml:space="preserve">Add functionality to view drinks Create home screen </t>
-  </si>
-  <si>
-    <t>S C R U M   P L A N N I N G</t>
-  </si>
-  <si>
-    <t>4hrs</t>
-  </si>
-  <si>
-    <t>7 days</t>
-  </si>
-  <si>
     <t>med</t>
   </si>
   <si>
     <t>Working</t>
   </si>
   <si>
+    <t>NOTES</t>
+  </si>
+  <si>
     <t>S P R I N T  # 2</t>
   </si>
   <si>
-    <t>S P R I N T  # 3</t>
+    <t>As a user I should be able to add and or delete items from my order</t>
   </si>
   <si>
-    <t>3 days</t>
+    <t>Database package: Setup db</t>
   </si>
   <si>
-    <t>Adding items to db from all menu screens</t>
+    <t>Database creation: (1) Connect db &amp; (2) Create table</t>
   </si>
   <si>
-    <t>Deleting items to db from all menu screens</t>
+    <t>Database Helper: Create DB Helper</t>
   </si>
   <si>
-    <t>User test to ensure the data shown on the bill reflect what the user selected or updated on their order.</t>
-  </si>
-  <si>
-    <t>Generate a response when the user selects the call waiter button</t>
-  </si>
-  <si>
-    <t>Developer the time mechanism</t>
-  </si>
-  <si>
-    <t>Food tracker progress bar</t>
-  </si>
-  <si>
-    <t>Perform user test on the call waiter button to ensure the timer performs as expected.</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>Blocked</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user I should be able to View my current bill </t>
-  </si>
-  <si>
-    <t>As a user I should be able to call the waiter to my table</t>
+    <t>Connect db to the application</t>
   </si>
   <si>
     <t xml:space="preserve">Adding a menu item to the db </t>
   </si>
   <si>
     <t>Adding multiple items to the db</t>
+  </si>
+  <si>
+    <t>Pending</t>
   </si>
   <si>
     <t>Deleting a menu item from the db</t>
@@ -250,25 +220,55 @@
     <t>User input to adjust the quantity of an item  to the order</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>Adjusting the layout of the application</t>
   </si>
   <si>
-    <t>Pending</t>
+    <t>Sprint Number: 2</t>
   </si>
   <si>
-    <t>As a user I should be able to add and or delete items from my order</t>
+    <t>7 days</t>
   </si>
   <si>
-    <t>Database Helper: Create DB Helper</t>
+    <t>S P R I N T  # 3</t>
   </si>
   <si>
-    <t>Connect db to the application</t>
+    <t xml:space="preserve">As a user I should be able to View my current bill </t>
   </si>
   <si>
-    <t>Database package: Setup db</t>
+    <t>Adding items to db from all menu screens</t>
   </si>
   <si>
-    <t>Database creation: (1) Connect db &amp; (2) Create table</t>
+    <t>Deleting items to db from all menu screens</t>
+  </si>
+  <si>
+    <t>User test to ensure the data shown on the bill reflect what the user selected or updated on their order.</t>
+  </si>
+  <si>
+    <t>As a user I should be able to call the waiter to my table</t>
+  </si>
+  <si>
+    <t>Generate a response when the user selects the call waiter button</t>
+  </si>
+  <si>
+    <t>Developer the time mechanism</t>
+  </si>
+  <si>
+    <t>Perform user test on the call waiter button to ensure the timer performs as expected.</t>
+  </si>
+  <si>
+    <t>Food tracker progress bar</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>Sprint Number: 3</t>
+  </si>
+  <si>
+    <t>3 days</t>
   </si>
 </sst>
 </file>
@@ -278,7 +278,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1065,12 +1065,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1195,22 +1189,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1250,126 +1232,144 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1627,7 +1627,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SCRUM CYCLE 1'!$D$3</c:f>
+              <c:f>'SPRINT CYCLE 1'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1650,7 +1650,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SCRUM CYCLE 1'!$C$4:$C$24</c:f>
+              <c:f>'SPRINT CYCLE 1'!$C$4:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1719,7 +1719,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SCRUM CYCLE 1'!$D$4:$D$24</c:f>
+              <c:f>'SPRINT CYCLE 1'!$D$4:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1753,7 +1753,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SCRUM CYCLE 1'!$E$3</c:f>
+              <c:f>'SPRINT CYCLE 1'!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1776,7 +1776,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SCRUM CYCLE 1'!$C$4:$C$24</c:f>
+              <c:f>'SPRINT CYCLE 1'!$C$4:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1845,7 +1845,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SCRUM CYCLE 1'!$E$4:$E$24</c:f>
+              <c:f>'SPRINT CYCLE 1'!$E$4:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2271,7 +2271,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SCRUM CYCLE 2'!$D$3</c:f>
+              <c:f>'SPRINT CYCLE 2'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2294,7 +2294,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SCRUM CYCLE 2'!$C$4:$C$24</c:f>
+              <c:f>'SPRINT CYCLE 2'!$C$4:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2363,7 +2363,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SCRUM CYCLE 2'!$D$4:$D$24</c:f>
+              <c:f>'SPRINT CYCLE 2'!$D$4:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2427,7 +2427,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SCRUM CYCLE 2'!$E$3</c:f>
+              <c:f>'SPRINT CYCLE 2'!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2450,7 +2450,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SCRUM CYCLE 2'!$C$4:$C$24</c:f>
+              <c:f>'SPRINT CYCLE 2'!$C$4:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2519,7 +2519,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SCRUM CYCLE 2'!$E$4:$E$24</c:f>
+              <c:f>'SPRINT CYCLE 2'!$E$4:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2945,7 +2945,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SCRUM CYCLE 3'!$D$3</c:f>
+              <c:f>'SPRINT CYCLE 3'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2968,7 +2968,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SCRUM CYCLE 3'!$C$4:$C$24</c:f>
+              <c:f>'SPRINT CYCLE 3'!$C$4:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3037,7 +3037,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SCRUM CYCLE 3'!$D$4:$D$24</c:f>
+              <c:f>'SPRINT CYCLE 3'!$D$4:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3116,7 +3116,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SCRUM CYCLE 3'!$E$3</c:f>
+              <c:f>'SPRINT CYCLE 3'!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3139,7 +3139,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SCRUM CYCLE 3'!$C$4:$C$24</c:f>
+              <c:f>'SPRINT CYCLE 3'!$C$4:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3208,7 +3208,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SCRUM CYCLE 3'!$E$4:$E$24</c:f>
+              <c:f>'SPRINT CYCLE 3'!$E$4:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3264,7 +3264,7 @@
                   <c:v>4.3999999999999844</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.79999999999998428</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -5832,11 +5832,11 @@
   </sheetPr>
   <dimension ref="B1:AI44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AI18" sqref="AI18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
     <col min="2" max="2" width="3.140625" customWidth="1"/>
@@ -5856,110 +5856,110 @@
     <col min="34" max="34" width="16.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:35" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="154"/>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="154"/>
-      <c r="S1" s="154"/>
-      <c r="T1" s="154"/>
-      <c r="U1" s="154"/>
-      <c r="V1" s="154"/>
-      <c r="W1" s="154"/>
-      <c r="X1" s="154"/>
-      <c r="Y1" s="154"/>
-      <c r="Z1" s="154"/>
-      <c r="AA1" s="154"/>
-      <c r="AB1" s="154"/>
-      <c r="AC1" s="154"/>
-      <c r="AD1" s="154"/>
-      <c r="AE1" s="154"/>
-      <c r="AF1" s="154"/>
-      <c r="AG1" s="154"/>
-      <c r="AH1" s="154"/>
-      <c r="AI1" s="154"/>
-    </row>
-    <row r="2" spans="2:35" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="92"/>
-      <c r="T2" s="92"/>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="92"/>
-      <c r="Z2" s="92"/>
-      <c r="AA2" s="92"/>
-      <c r="AB2" s="92"/>
-      <c r="AC2" s="92"/>
-      <c r="AD2" s="92"/>
-      <c r="AE2" s="92"/>
-      <c r="AF2" s="92"/>
-      <c r="AG2" s="92"/>
-      <c r="AH2" s="92"/>
-    </row>
-    <row r="3" spans="2:35" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="63"/>
-      <c r="C3" s="63" t="s">
+    <row r="1" spans="2:35" ht="41.25" customHeight="1" thickBot="1">
+      <c r="B1" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
+      <c r="U1" s="139"/>
+      <c r="V1" s="139"/>
+      <c r="W1" s="139"/>
+      <c r="X1" s="139"/>
+      <c r="Y1" s="139"/>
+      <c r="Z1" s="139"/>
+      <c r="AA1" s="139"/>
+      <c r="AB1" s="139"/>
+      <c r="AC1" s="139"/>
+      <c r="AD1" s="139"/>
+      <c r="AE1" s="139"/>
+      <c r="AF1" s="139"/>
+      <c r="AG1" s="139"/>
+      <c r="AH1" s="139"/>
+      <c r="AI1" s="139"/>
+    </row>
+    <row r="2" spans="2:35" ht="18.75" customHeight="1" thickTop="1">
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="90"/>
+      <c r="X2" s="90"/>
+      <c r="Y2" s="90"/>
+      <c r="Z2" s="90"/>
+      <c r="AA2" s="90"/>
+      <c r="AB2" s="90"/>
+      <c r="AC2" s="90"/>
+      <c r="AD2" s="90"/>
+      <c r="AE2" s="90"/>
+      <c r="AF2" s="90"/>
+      <c r="AG2" s="90"/>
+      <c r="AH2" s="90"/>
+    </row>
+    <row r="3" spans="2:35" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B3" s="133"/>
+      <c r="C3" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="93"/>
-      <c r="X3" s="155" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y3" s="155"/>
-      <c r="Z3" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA3" s="155" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB3" s="155"/>
-      <c r="AD3" s="156" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE3" s="156"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="156"/>
-      <c r="AH3" s="156"/>
-    </row>
-    <row r="4" spans="2:35" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="133" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="91"/>
+      <c r="X3" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="140"/>
+      <c r="Z3" s="133" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA3" s="140" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB3" s="140"/>
+      <c r="AD3" s="141" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE3" s="141"/>
+      <c r="AF3" s="141"/>
+      <c r="AG3" s="141"/>
+      <c r="AH3" s="141"/>
+    </row>
+    <row r="4" spans="2:35" ht="19.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="B4" s="30"/>
       <c r="C4" s="20">
         <v>43770</v>
@@ -5973,31 +5973,31 @@
       <c r="F4" s="60"/>
       <c r="X4" s="30"/>
       <c r="Y4" s="31" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Z4" s="24">
         <v>14</v>
       </c>
-      <c r="AA4" s="157">
+      <c r="AA4" s="142">
         <f>(Z4/5)</f>
         <v>2.8</v>
       </c>
-      <c r="AB4" s="158"/>
-      <c r="AD4" s="159" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE4" s="159"/>
-      <c r="AF4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG4" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH4" s="62" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="2:35" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AB4" s="143"/>
+      <c r="AD4" s="144" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE4" s="144"/>
+      <c r="AF4" s="134" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG4" s="134" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH4" s="134" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:35" ht="18" customHeight="1" thickTop="1">
       <c r="B5" s="14"/>
       <c r="C5" s="19">
         <v>43771</v>
@@ -6012,30 +6012,30 @@
       <c r="F5" s="15"/>
       <c r="X5" s="30"/>
       <c r="Y5" s="31" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="Z5" s="24">
         <v>14</v>
       </c>
-      <c r="AA5" s="147">
+      <c r="AA5" s="155">
         <f t="shared" ref="AA5:AA8" si="0">(Z5/5)</f>
         <v>2.8</v>
       </c>
-      <c r="AB5" s="148"/>
-      <c r="AE5" s="113" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF5" s="70" t="s">
-        <v>28</v>
+      <c r="AB5" s="156"/>
+      <c r="AE5" s="111" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF5" s="68" t="s">
+        <v>15</v>
       </c>
       <c r="AG5" s="58" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AH5" s="59" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:35" ht="18" customHeight="1">
       <c r="B6" s="14"/>
       <c r="C6" s="19">
         <v>43772</v>
@@ -6050,28 +6050,28 @@
       <c r="F6" s="15"/>
       <c r="X6" s="14"/>
       <c r="Y6" s="32" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="Z6" s="23">
         <v>14</v>
       </c>
-      <c r="AA6" s="147">
+      <c r="AA6" s="155">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="AB6" s="148"/>
+      <c r="AB6" s="156"/>
       <c r="AE6" s="27"/>
-      <c r="AF6" s="69" t="s">
-        <v>29</v>
+      <c r="AF6" s="67" t="s">
+        <v>19</v>
       </c>
       <c r="AG6" s="52" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AH6" s="53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:35" ht="18" customHeight="1">
       <c r="B7" s="14"/>
       <c r="C7" s="19">
         <v>43773</v>
@@ -6086,28 +6086,28 @@
       <c r="F7" s="15"/>
       <c r="X7" s="14"/>
       <c r="Y7" s="32" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Z7" s="23">
         <v>10</v>
       </c>
-      <c r="AA7" s="147">
+      <c r="AA7" s="155">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AB7" s="148"/>
+      <c r="AB7" s="156"/>
       <c r="AE7" s="27"/>
-      <c r="AF7" s="69" t="s">
-        <v>30</v>
+      <c r="AF7" s="67" t="s">
+        <v>21</v>
       </c>
       <c r="AG7" s="52" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AH7" s="53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:35" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:35" ht="18" customHeight="1" thickBot="1">
       <c r="B8" s="14"/>
       <c r="C8" s="19">
         <v>43774</v>
@@ -6121,28 +6121,28 @@
       </c>
       <c r="F8" s="15"/>
       <c r="Y8" s="28" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="Z8" s="29">
         <v>10</v>
       </c>
-      <c r="AA8" s="149">
+      <c r="AA8" s="157">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AB8" s="150"/>
+      <c r="AB8" s="158"/>
       <c r="AE8" s="27"/>
-      <c r="AF8" s="69" t="s">
-        <v>31</v>
+      <c r="AF8" s="67" t="s">
+        <v>23</v>
       </c>
       <c r="AG8" s="52" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AH8" s="53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="2:35" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:35" ht="18" customHeight="1" thickTop="1" thickBot="1">
       <c r="B9" s="14"/>
       <c r="C9" s="19">
         <v>43775</v>
@@ -6159,23 +6159,23 @@
         <f>SUM(Z4:Z8)</f>
         <v>62</v>
       </c>
-      <c r="AA9" s="151">
+      <c r="AA9" s="159">
         <f>SUM(AA4:AA8)</f>
         <v>12.399999999999999</v>
       </c>
-      <c r="AB9" s="152"/>
+      <c r="AB9" s="160"/>
       <c r="AE9" s="27"/>
       <c r="AF9" s="54" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AG9" s="52" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AH9" s="53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="2:35" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:35" ht="18" customHeight="1" thickTop="1">
       <c r="B10" s="14"/>
       <c r="C10" s="19">
         <v>43776</v>
@@ -6189,17 +6189,17 @@
       <c r="Y10" s="42"/>
       <c r="Z10" s="41"/>
       <c r="AE10" s="27"/>
-      <c r="AF10" s="69" t="s">
-        <v>33</v>
+      <c r="AF10" s="67" t="s">
+        <v>25</v>
       </c>
       <c r="AG10" s="52" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AH10" s="53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:35" ht="18" customHeight="1">
       <c r="B11" s="14"/>
       <c r="C11" s="19">
         <v>43777</v>
@@ -6211,17 +6211,17 @@
       </c>
       <c r="F11" s="15"/>
       <c r="AE11" s="27"/>
-      <c r="AF11" s="69" t="s">
-        <v>34</v>
+      <c r="AF11" s="67" t="s">
+        <v>26</v>
       </c>
       <c r="AG11" s="52" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AH11" s="53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:35" ht="18" customHeight="1">
       <c r="B12" s="14"/>
       <c r="C12" s="19">
         <v>43778</v>
@@ -6234,20 +6234,20 @@
       <c r="F12" s="15"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
-      <c r="Z12" s="94"/>
+      <c r="Z12" s="92"/>
       <c r="AA12" s="1"/>
       <c r="AE12" s="27"/>
-      <c r="AF12" s="69" t="s">
-        <v>43</v>
+      <c r="AF12" s="67" t="s">
+        <v>27</v>
       </c>
       <c r="AG12" s="52" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AH12" s="53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="2:35" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:35" ht="18" customHeight="1" thickBot="1">
       <c r="B13" s="14"/>
       <c r="C13" s="19">
         <v>43779</v>
@@ -6258,24 +6258,24 @@
         <v>29.599999999999987</v>
       </c>
       <c r="F13" s="15"/>
-      <c r="X13" s="153" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y13" s="153"/>
-      <c r="Z13" s="153"/>
-      <c r="AA13" s="153"/>
+      <c r="X13" s="161" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y13" s="161"/>
+      <c r="Z13" s="161"/>
+      <c r="AA13" s="161"/>
       <c r="AE13" s="27"/>
       <c r="AF13" s="54" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AG13" s="52" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AH13" s="53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="2:35" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:35" ht="18" customHeight="1" thickTop="1">
       <c r="B14" s="14"/>
       <c r="C14" s="19">
         <v>43780</v>
@@ -6286,26 +6286,26 @@
         <v>25.999999999999986</v>
       </c>
       <c r="F14" s="15"/>
-      <c r="X14" s="95"/>
-      <c r="Y14" s="96" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z14" s="97">
+      <c r="X14" s="93"/>
+      <c r="Y14" s="94" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z14" s="95">
         <v>43771</v>
       </c>
       <c r="AA14" s="30"/>
       <c r="AE14" s="27"/>
       <c r="AF14" s="54" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="AG14" s="52" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AH14" s="53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:35" ht="18" customHeight="1">
       <c r="B15" s="14"/>
       <c r="C15" s="19">
         <v>43781</v>
@@ -6316,26 +6316,26 @@
         <v>22.399999999999984</v>
       </c>
       <c r="F15" s="15"/>
-      <c r="X15" s="98"/>
-      <c r="Y15" s="99" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z15" s="100">
+      <c r="X15" s="96"/>
+      <c r="Y15" s="97" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z15" s="98">
         <v>43774</v>
       </c>
       <c r="AA15" s="14"/>
       <c r="AE15" s="27"/>
       <c r="AF15" s="54" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AG15" s="52" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AH15" s="53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:35" ht="18" customHeight="1">
       <c r="B16" s="14"/>
       <c r="C16" s="19">
         <v>43782</v>
@@ -6346,26 +6346,26 @@
         <v>18.799999999999983</v>
       </c>
       <c r="F16" s="15"/>
-      <c r="X16" s="98"/>
-      <c r="Y16" s="99" t="s">
-        <v>9</v>
+      <c r="X16" s="96"/>
+      <c r="Y16" s="97" t="s">
+        <v>34</v>
       </c>
       <c r="Z16" s="37" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="AA16" s="14"/>
       <c r="AE16" s="27"/>
       <c r="AF16" s="54" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AG16" s="52" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AH16" s="53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:34" ht="18" customHeight="1">
       <c r="B17" s="14"/>
       <c r="C17" s="19">
         <v>43783</v>
@@ -6376,26 +6376,26 @@
         <v>15.199999999999983</v>
       </c>
       <c r="F17" s="15"/>
-      <c r="X17" s="98"/>
-      <c r="Y17" s="99" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z17" s="101" t="s">
-        <v>45</v>
+      <c r="X17" s="96"/>
+      <c r="Y17" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z17" s="99" t="s">
+        <v>38</v>
       </c>
       <c r="AA17" s="14"/>
       <c r="AE17" s="27"/>
-      <c r="AF17" s="69" t="s">
+      <c r="AF17" s="67" t="s">
         <v>39</v>
       </c>
       <c r="AG17" s="52" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AH17" s="53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:34" ht="18" customHeight="1">
       <c r="B18" s="14"/>
       <c r="C18" s="19">
         <v>43784</v>
@@ -6406,20 +6406,20 @@
         <v>11.599999999999984</v>
       </c>
       <c r="F18" s="15"/>
-      <c r="Y18" s="102"/>
-      <c r="Z18" s="103"/>
+      <c r="Y18" s="100"/>
+      <c r="Z18" s="101"/>
       <c r="AE18" s="27"/>
-      <c r="AF18" s="69" t="s">
+      <c r="AF18" s="67" t="s">
         <v>40</v>
       </c>
       <c r="AG18" s="52" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AH18" s="53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:34" ht="18" customHeight="1">
       <c r="B19" s="14"/>
       <c r="C19" s="19">
         <v>43785</v>
@@ -6430,20 +6430,20 @@
         <v>7.999999999999984</v>
       </c>
       <c r="F19" s="15"/>
-      <c r="Y19" s="102"/>
-      <c r="Z19" s="104"/>
+      <c r="Y19" s="100"/>
+      <c r="Z19" s="102"/>
       <c r="AE19" s="27"/>
-      <c r="AF19" s="69" t="s">
+      <c r="AF19" s="67" t="s">
         <v>41</v>
       </c>
       <c r="AG19" s="52" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AH19" s="53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:34" ht="18" customHeight="1">
       <c r="B20" s="14"/>
       <c r="C20" s="19">
         <v>43786</v>
@@ -6454,22 +6454,22 @@
         <v>4.3999999999999844</v>
       </c>
       <c r="F20" s="15"/>
-      <c r="X20" s="64"/>
-      <c r="Y20" s="64"/>
-      <c r="Z20" s="67"/>
-      <c r="AA20" s="64"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="65"/>
+      <c r="AA20" s="62"/>
       <c r="AE20" s="27"/>
-      <c r="AF20" s="69" t="s">
+      <c r="AF20" s="67" t="s">
         <v>42</v>
       </c>
       <c r="AG20" s="52" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AH20" s="53" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="2:34" ht="18" customHeight="1">
       <c r="C21" s="20">
         <v>43787</v>
       </c>
@@ -6479,16 +6479,16 @@
         <v>0.79999999999998428</v>
       </c>
       <c r="F21" s="16"/>
-      <c r="X21" s="137"/>
-      <c r="Y21" s="137"/>
-      <c r="Z21" s="137"/>
-      <c r="AA21" s="137"/>
+      <c r="X21" s="145"/>
+      <c r="Y21" s="145"/>
+      <c r="Z21" s="145"/>
+      <c r="AA21" s="145"/>
       <c r="AE21" s="27"/>
-      <c r="AF21" s="69"/>
+      <c r="AF21" s="67"/>
       <c r="AG21" s="51"/>
       <c r="AH21" s="23"/>
     </row>
-    <row r="22" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:34" ht="18" customHeight="1">
       <c r="B22" s="14"/>
       <c r="C22" s="19">
         <v>43788</v>
@@ -6498,16 +6498,16 @@
         <v>0</v>
       </c>
       <c r="F22" s="15"/>
-      <c r="X22" s="64"/>
-      <c r="Y22" s="109"/>
-      <c r="Z22" s="110"/>
-      <c r="AA22" s="64"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="107"/>
+      <c r="Z22" s="108"/>
+      <c r="AA22" s="62"/>
       <c r="AE22" s="27"/>
       <c r="AF22" s="56"/>
       <c r="AG22" s="56"/>
       <c r="AH22" s="24"/>
     </row>
-    <row r="23" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:34" ht="18" customHeight="1">
       <c r="C23" s="21">
         <v>43789</v>
       </c>
@@ -6516,287 +6516,281 @@
         <v>0</v>
       </c>
       <c r="F23" s="17"/>
-      <c r="X23" s="64"/>
-      <c r="Y23" s="109"/>
-      <c r="Z23" s="110"/>
-      <c r="AA23" s="64"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="107"/>
+      <c r="Z23" s="108"/>
+      <c r="AA23" s="62"/>
       <c r="AE23" s="27"/>
       <c r="AF23" s="51"/>
       <c r="AG23" s="51"/>
       <c r="AH23" s="23"/>
     </row>
-    <row r="24" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:34" ht="18" customHeight="1">
       <c r="B24" s="18"/>
       <c r="C24" s="22"/>
       <c r="D24" s="26"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
-      <c r="X24" s="64"/>
-      <c r="Y24" s="109"/>
-      <c r="Z24" s="67"/>
-      <c r="AA24" s="64"/>
-      <c r="AE24" s="105"/>
+      <c r="X24" s="62"/>
+      <c r="Y24" s="107"/>
+      <c r="Z24" s="65"/>
+      <c r="AA24" s="62"/>
+      <c r="AE24" s="103"/>
       <c r="AF24" s="51"/>
       <c r="AG24" s="51"/>
       <c r="AH24" s="23"/>
     </row>
-    <row r="25" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:34" ht="18" customHeight="1">
       <c r="C25" s="13"/>
-      <c r="X25" s="64"/>
-      <c r="Y25" s="109"/>
-      <c r="Z25" s="111"/>
-      <c r="AA25" s="64"/>
-      <c r="AE25" s="106"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="107"/>
+      <c r="Z25" s="109"/>
+      <c r="AA25" s="62"/>
+      <c r="AE25" s="104"/>
       <c r="AF25" s="51"/>
       <c r="AG25" s="51"/>
       <c r="AH25" s="23"/>
     </row>
-    <row r="26" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:34" ht="18" customHeight="1">
       <c r="C26" s="13"/>
-      <c r="X26" s="64"/>
-      <c r="Y26" s="109"/>
-      <c r="Z26" s="112"/>
-      <c r="AA26" s="64"/>
-      <c r="AE26" s="106"/>
+      <c r="X26" s="62"/>
+      <c r="Y26" s="107"/>
+      <c r="Z26" s="110"/>
+      <c r="AA26" s="62"/>
+      <c r="AE26" s="104"/>
       <c r="AF26" s="57"/>
       <c r="AG26" s="38"/>
       <c r="AH26" s="26"/>
     </row>
-    <row r="27" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:34" ht="18" customHeight="1">
       <c r="C27" s="13"/>
-      <c r="P27" s="107"/>
-      <c r="Q27" s="107"/>
-      <c r="R27" s="107"/>
-      <c r="S27" s="107"/>
-      <c r="T27" s="107"/>
-      <c r="X27" s="64"/>
-      <c r="Y27" s="109"/>
-      <c r="Z27" s="112"/>
-      <c r="AA27" s="64"/>
-      <c r="AE27" s="108"/>
-    </row>
-    <row r="28" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P27" s="105"/>
+      <c r="Q27" s="105"/>
+      <c r="R27" s="105"/>
+      <c r="S27" s="105"/>
+      <c r="T27" s="105"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="107"/>
+      <c r="Z27" s="110"/>
+      <c r="AA27" s="62"/>
+      <c r="AE27" s="106"/>
+    </row>
+    <row r="28" spans="2:34" ht="18" customHeight="1">
       <c r="C28" s="13"/>
-      <c r="P28" s="107"/>
-      <c r="Q28" s="107"/>
-      <c r="R28" s="107"/>
-      <c r="S28" s="107"/>
-      <c r="T28" s="107"/>
-      <c r="X28" s="64"/>
-      <c r="Y28" s="64"/>
-      <c r="Z28" s="67"/>
-      <c r="AA28" s="64"/>
-      <c r="AE28" s="108"/>
-    </row>
-    <row r="29" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="138" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="139"/>
-      <c r="E29" s="139"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="139"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="139"/>
-      <c r="J29" s="140"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="107"/>
-      <c r="X29" s="137"/>
-      <c r="Y29" s="137"/>
-      <c r="Z29" s="137"/>
-      <c r="AA29" s="137"/>
-      <c r="AE29" s="108"/>
-    </row>
-    <row r="30" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="141"/>
-      <c r="D30" s="142"/>
-      <c r="E30" s="142"/>
-      <c r="F30" s="142"/>
-      <c r="G30" s="142"/>
-      <c r="H30" s="142"/>
-      <c r="I30" s="142"/>
-      <c r="J30" s="143"/>
-      <c r="P30" s="107"/>
-      <c r="Q30" s="107"/>
-      <c r="R30" s="107"/>
-      <c r="S30" s="107"/>
-      <c r="T30" s="107"/>
-      <c r="X30" s="64"/>
-      <c r="Y30" s="109"/>
-      <c r="Z30" s="110"/>
-      <c r="AA30" s="64"/>
-      <c r="AE30" s="108"/>
-    </row>
-    <row r="31" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="141"/>
-      <c r="D31" s="142"/>
-      <c r="E31" s="142"/>
-      <c r="F31" s="142"/>
-      <c r="G31" s="142"/>
-      <c r="H31" s="142"/>
-      <c r="I31" s="142"/>
-      <c r="J31" s="143"/>
-      <c r="P31" s="107"/>
-      <c r="Q31" s="107"/>
-      <c r="R31" s="107"/>
-      <c r="S31" s="107"/>
-      <c r="T31" s="107"/>
-      <c r="X31" s="64"/>
-      <c r="Y31" s="109"/>
-      <c r="Z31" s="110"/>
-      <c r="AA31" s="64"/>
-      <c r="AE31" s="108"/>
-    </row>
-    <row r="32" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="141"/>
-      <c r="D32" s="142"/>
-      <c r="E32" s="142"/>
-      <c r="F32" s="142"/>
-      <c r="G32" s="142"/>
-      <c r="H32" s="142"/>
-      <c r="I32" s="142"/>
-      <c r="J32" s="143"/>
-      <c r="P32" s="107"/>
-      <c r="Q32" s="107"/>
-      <c r="R32" s="107"/>
-      <c r="S32" s="107"/>
-      <c r="T32" s="107"/>
-      <c r="X32" s="64"/>
-      <c r="Y32" s="109"/>
-      <c r="Z32" s="67"/>
-      <c r="AA32" s="64"/>
-      <c r="AE32" s="108"/>
-    </row>
-    <row r="33" spans="3:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="141"/>
-      <c r="D33" s="142"/>
-      <c r="E33" s="142"/>
-      <c r="F33" s="142"/>
-      <c r="G33" s="142"/>
-      <c r="H33" s="142"/>
-      <c r="I33" s="142"/>
-      <c r="J33" s="143"/>
-      <c r="P33" s="107"/>
-      <c r="Q33" s="107"/>
-      <c r="R33" s="107"/>
-      <c r="S33" s="107"/>
-      <c r="T33" s="107"/>
-      <c r="X33" s="64"/>
-      <c r="Y33" s="109"/>
-      <c r="Z33" s="111"/>
-      <c r="AA33" s="64"/>
-      <c r="AE33" s="108"/>
-    </row>
-    <row r="34" spans="3:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="144"/>
-      <c r="D34" s="145"/>
-      <c r="E34" s="145"/>
-      <c r="F34" s="145"/>
-      <c r="G34" s="145"/>
-      <c r="H34" s="145"/>
-      <c r="I34" s="145"/>
-      <c r="J34" s="146"/>
-      <c r="P34" s="107"/>
-      <c r="Q34" s="107"/>
-      <c r="R34" s="107"/>
-      <c r="S34" s="107"/>
-      <c r="T34" s="107"/>
-      <c r="X34" s="64"/>
-      <c r="Y34" s="109"/>
-      <c r="Z34" s="112"/>
-      <c r="AA34" s="64"/>
-      <c r="AE34" s="108"/>
-    </row>
-    <row r="35" spans="3:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P28" s="105"/>
+      <c r="Q28" s="105"/>
+      <c r="R28" s="105"/>
+      <c r="S28" s="105"/>
+      <c r="T28" s="105"/>
+      <c r="X28" s="62"/>
+      <c r="Y28" s="62"/>
+      <c r="Z28" s="65"/>
+      <c r="AA28" s="62"/>
+      <c r="AE28" s="106"/>
+    </row>
+    <row r="29" spans="2:34" ht="18" customHeight="1">
+      <c r="C29" s="146" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="147"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="148"/>
+      <c r="P29" s="105"/>
+      <c r="Q29" s="105"/>
+      <c r="R29" s="105"/>
+      <c r="S29" s="105"/>
+      <c r="T29" s="105"/>
+      <c r="X29" s="145"/>
+      <c r="Y29" s="145"/>
+      <c r="Z29" s="145"/>
+      <c r="AA29" s="145"/>
+      <c r="AE29" s="106"/>
+    </row>
+    <row r="30" spans="2:34" ht="18" customHeight="1">
+      <c r="C30" s="149"/>
+      <c r="D30" s="150"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="151"/>
+      <c r="P30" s="105"/>
+      <c r="Q30" s="105"/>
+      <c r="R30" s="105"/>
+      <c r="S30" s="105"/>
+      <c r="T30" s="105"/>
+      <c r="X30" s="62"/>
+      <c r="Y30" s="107"/>
+      <c r="Z30" s="108"/>
+      <c r="AA30" s="62"/>
+      <c r="AE30" s="106"/>
+    </row>
+    <row r="31" spans="2:34" ht="18" customHeight="1">
+      <c r="C31" s="149"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="151"/>
+      <c r="P31" s="105"/>
+      <c r="Q31" s="105"/>
+      <c r="R31" s="105"/>
+      <c r="S31" s="105"/>
+      <c r="T31" s="105"/>
+      <c r="X31" s="62"/>
+      <c r="Y31" s="107"/>
+      <c r="Z31" s="108"/>
+      <c r="AA31" s="62"/>
+      <c r="AE31" s="106"/>
+    </row>
+    <row r="32" spans="2:34" ht="18" customHeight="1">
+      <c r="C32" s="149"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="151"/>
+      <c r="P32" s="105"/>
+      <c r="Q32" s="105"/>
+      <c r="R32" s="105"/>
+      <c r="S32" s="105"/>
+      <c r="T32" s="105"/>
+      <c r="X32" s="62"/>
+      <c r="Y32" s="107"/>
+      <c r="Z32" s="65"/>
+      <c r="AA32" s="62"/>
+      <c r="AE32" s="106"/>
+    </row>
+    <row r="33" spans="3:31" ht="18" customHeight="1">
+      <c r="C33" s="149"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="151"/>
+      <c r="P33" s="105"/>
+      <c r="Q33" s="105"/>
+      <c r="R33" s="105"/>
+      <c r="S33" s="105"/>
+      <c r="T33" s="105"/>
+      <c r="X33" s="62"/>
+      <c r="Y33" s="107"/>
+      <c r="Z33" s="109"/>
+      <c r="AA33" s="62"/>
+      <c r="AE33" s="106"/>
+    </row>
+    <row r="34" spans="3:31" ht="18" customHeight="1">
+      <c r="C34" s="152"/>
+      <c r="D34" s="153"/>
+      <c r="E34" s="153"/>
+      <c r="F34" s="153"/>
+      <c r="G34" s="153"/>
+      <c r="H34" s="153"/>
+      <c r="I34" s="153"/>
+      <c r="J34" s="154"/>
+      <c r="P34" s="105"/>
+      <c r="Q34" s="105"/>
+      <c r="R34" s="105"/>
+      <c r="S34" s="105"/>
+      <c r="T34" s="105"/>
+      <c r="X34" s="62"/>
+      <c r="Y34" s="107"/>
+      <c r="Z34" s="110"/>
+      <c r="AA34" s="62"/>
+      <c r="AE34" s="106"/>
+    </row>
+    <row r="35" spans="3:31" ht="18" customHeight="1">
       <c r="C35" s="13"/>
-      <c r="P35" s="107"/>
-      <c r="Q35" s="107"/>
-      <c r="R35" s="107"/>
-      <c r="S35" s="107"/>
-      <c r="T35" s="107"/>
-      <c r="X35" s="64"/>
-      <c r="Y35" s="109"/>
-      <c r="Z35" s="112"/>
-      <c r="AA35" s="64"/>
-      <c r="AE35" s="108"/>
-    </row>
-    <row r="36" spans="3:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P35" s="105"/>
+      <c r="Q35" s="105"/>
+      <c r="R35" s="105"/>
+      <c r="S35" s="105"/>
+      <c r="T35" s="105"/>
+      <c r="X35" s="62"/>
+      <c r="Y35" s="107"/>
+      <c r="Z35" s="110"/>
+      <c r="AA35" s="62"/>
+      <c r="AE35" s="106"/>
+    </row>
+    <row r="36" spans="3:31" ht="18" customHeight="1">
       <c r="C36" s="13"/>
-      <c r="P36" s="107"/>
-      <c r="Q36" s="107"/>
-      <c r="R36" s="107"/>
-      <c r="S36" s="107"/>
-      <c r="T36" s="107"/>
-      <c r="X36" s="64"/>
-      <c r="Y36" s="64"/>
-      <c r="Z36" s="67"/>
-      <c r="AA36" s="64"/>
-      <c r="AE36" s="108"/>
-    </row>
-    <row r="37" spans="3:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P37" s="107"/>
-      <c r="Q37" s="107"/>
-      <c r="R37" s="107"/>
-      <c r="S37" s="107"/>
-      <c r="T37" s="107"/>
-      <c r="X37" s="137"/>
-      <c r="Y37" s="137"/>
-      <c r="Z37" s="137"/>
-      <c r="AA37" s="137"/>
-    </row>
-    <row r="38" spans="3:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P38" s="107"/>
-      <c r="Q38" s="107"/>
-      <c r="R38" s="107"/>
-      <c r="S38" s="107"/>
-      <c r="T38" s="107"/>
-      <c r="X38" s="64"/>
-      <c r="Y38" s="109"/>
-      <c r="Z38" s="110"/>
-      <c r="AA38" s="64"/>
-    </row>
-    <row r="39" spans="3:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="X39" s="64"/>
-      <c r="Y39" s="109"/>
-      <c r="Z39" s="110"/>
-      <c r="AA39" s="64"/>
-    </row>
-    <row r="40" spans="3:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="X40" s="64"/>
-      <c r="Y40" s="109"/>
-      <c r="Z40" s="67"/>
-      <c r="AA40" s="64"/>
-    </row>
-    <row r="41" spans="3:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="X41" s="64"/>
-      <c r="Y41" s="109"/>
-      <c r="Z41" s="111"/>
-      <c r="AA41" s="64"/>
-    </row>
-    <row r="42" spans="3:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="X42" s="64"/>
-      <c r="Y42" s="64"/>
-      <c r="Z42" s="67"/>
-      <c r="AA42" s="64"/>
-    </row>
-    <row r="43" spans="3:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="X43" s="64"/>
-      <c r="Y43" s="64"/>
-      <c r="Z43" s="67"/>
-      <c r="AA43" s="64"/>
-    </row>
-    <row r="44" spans="3:31" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="P36" s="105"/>
+      <c r="Q36" s="105"/>
+      <c r="R36" s="105"/>
+      <c r="S36" s="105"/>
+      <c r="T36" s="105"/>
+      <c r="X36" s="62"/>
+      <c r="Y36" s="62"/>
+      <c r="Z36" s="65"/>
+      <c r="AA36" s="62"/>
+      <c r="AE36" s="106"/>
+    </row>
+    <row r="37" spans="3:31" ht="18" customHeight="1">
+      <c r="P37" s="105"/>
+      <c r="Q37" s="105"/>
+      <c r="R37" s="105"/>
+      <c r="S37" s="105"/>
+      <c r="T37" s="105"/>
+      <c r="X37" s="145"/>
+      <c r="Y37" s="145"/>
+      <c r="Z37" s="145"/>
+      <c r="AA37" s="145"/>
+    </row>
+    <row r="38" spans="3:31" ht="18" customHeight="1">
+      <c r="P38" s="105"/>
+      <c r="Q38" s="105"/>
+      <c r="R38" s="105"/>
+      <c r="S38" s="105"/>
+      <c r="T38" s="105"/>
+      <c r="X38" s="62"/>
+      <c r="Y38" s="107"/>
+      <c r="Z38" s="108"/>
+      <c r="AA38" s="62"/>
+    </row>
+    <row r="39" spans="3:31" ht="18" customHeight="1">
+      <c r="X39" s="62"/>
+      <c r="Y39" s="107"/>
+      <c r="Z39" s="108"/>
+      <c r="AA39" s="62"/>
+    </row>
+    <row r="40" spans="3:31" ht="18" customHeight="1">
+      <c r="X40" s="62"/>
+      <c r="Y40" s="107"/>
+      <c r="Z40" s="65"/>
+      <c r="AA40" s="62"/>
+    </row>
+    <row r="41" spans="3:31" ht="18" customHeight="1">
+      <c r="X41" s="62"/>
+      <c r="Y41" s="107"/>
+      <c r="Z41" s="109"/>
+      <c r="AA41" s="62"/>
+    </row>
+    <row r="42" spans="3:31" ht="18" customHeight="1">
+      <c r="X42" s="62"/>
+      <c r="Y42" s="62"/>
+      <c r="Z42" s="65"/>
+      <c r="AA42" s="62"/>
+    </row>
+    <row r="43" spans="3:31" ht="18" customHeight="1">
+      <c r="X43" s="62"/>
+      <c r="Y43" s="62"/>
+      <c r="Z43" s="65"/>
+      <c r="AA43" s="62"/>
+    </row>
+    <row r="44" spans="3:31" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B1:AI1"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AD3:AH3"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AD4:AE4"/>
     <mergeCell ref="X21:AA21"/>
     <mergeCell ref="C29:J34"/>
     <mergeCell ref="X29:AA29"/>
@@ -6807,6 +6801,12 @@
     <mergeCell ref="AA8:AB8"/>
     <mergeCell ref="AA9:AB9"/>
     <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="B1:AI1"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AD3:AH3"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AD4:AE4"/>
   </mergeCells>
   <conditionalFormatting sqref="AG5:AG20">
     <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="high">
@@ -6863,10 +6863,10 @@
   <dimension ref="B1:AI44"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF5" sqref="AF5:AF8"/>
+      <selection activeCell="AJ16" sqref="AJ16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
     <col min="2" max="2" width="3.140625" customWidth="1"/>
@@ -6886,45 +6886,45 @@
     <col min="34" max="34" width="16.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:35" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="154"/>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="154"/>
-      <c r="S1" s="154"/>
-      <c r="T1" s="154"/>
-      <c r="U1" s="154"/>
-      <c r="V1" s="154"/>
-      <c r="W1" s="154"/>
-      <c r="X1" s="154"/>
-      <c r="Y1" s="154"/>
-      <c r="Z1" s="154"/>
-      <c r="AA1" s="154"/>
-      <c r="AB1" s="154"/>
-      <c r="AC1" s="154"/>
-      <c r="AD1" s="154"/>
-      <c r="AE1" s="154"/>
-      <c r="AF1" s="154"/>
-      <c r="AG1" s="154"/>
-      <c r="AH1" s="154"/>
-      <c r="AI1" s="154"/>
-    </row>
-    <row r="2" spans="2:35" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:35" ht="41.25" customHeight="1" thickBot="1">
+      <c r="B1" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
+      <c r="U1" s="139"/>
+      <c r="V1" s="139"/>
+      <c r="W1" s="139"/>
+      <c r="X1" s="139"/>
+      <c r="Y1" s="139"/>
+      <c r="Z1" s="139"/>
+      <c r="AA1" s="139"/>
+      <c r="AB1" s="139"/>
+      <c r="AC1" s="139"/>
+      <c r="AD1" s="139"/>
+      <c r="AE1" s="139"/>
+      <c r="AF1" s="139"/>
+      <c r="AG1" s="139"/>
+      <c r="AH1" s="139"/>
+      <c r="AI1" s="139"/>
+    </row>
+    <row r="2" spans="2:35" ht="18.75" customHeight="1" thickTop="1">
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -6958,84 +6958,84 @@
       <c r="AG2" s="10"/>
       <c r="AH2" s="10"/>
     </row>
-    <row r="3" spans="2:35" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="117"/>
-      <c r="C3" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="117" t="s">
+    <row r="3" spans="2:35" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B3" s="135"/>
+      <c r="C3" s="135" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="118"/>
+      <c r="E3" s="135" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="113"/>
       <c r="X3" s="162" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="Y3" s="162"/>
-      <c r="Z3" s="117" t="s">
-        <v>13</v>
+      <c r="Z3" s="135" t="s">
+        <v>5</v>
       </c>
       <c r="AA3" s="162" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="AB3" s="162"/>
-      <c r="AD3" s="161" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE3" s="161"/>
-      <c r="AF3" s="161"/>
-      <c r="AG3" s="161"/>
-      <c r="AH3" s="161"/>
-    </row>
-    <row r="4" spans="2:35" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD3" s="165" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE3" s="165"/>
+      <c r="AF3" s="165"/>
+      <c r="AG3" s="165"/>
+      <c r="AH3" s="165"/>
+    </row>
+    <row r="4" spans="2:35" ht="19.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="B4" s="30"/>
-      <c r="C4" s="78">
+      <c r="C4" s="76">
         <v>43770</v>
       </c>
-      <c r="D4" s="79">
+      <c r="D4" s="77">
         <v>60</v>
       </c>
-      <c r="E4" s="80">
+      <c r="E4" s="78">
         <v>62</v>
       </c>
       <c r="F4" s="60"/>
       <c r="X4" s="30"/>
       <c r="Y4" s="31" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Z4" s="24">
         <v>14</v>
       </c>
-      <c r="AA4" s="157">
+      <c r="AA4" s="142">
         <f>(Z4/5)</f>
         <v>2.8</v>
       </c>
-      <c r="AB4" s="158"/>
-      <c r="AD4" s="160" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE4" s="160"/>
-      <c r="AF4" s="119" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG4" s="119" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH4" s="119" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="2:35" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AB4" s="143"/>
+      <c r="AD4" s="164" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE4" s="164"/>
+      <c r="AF4" s="136" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG4" s="136" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH4" s="136" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:35" ht="18" customHeight="1" thickTop="1">
       <c r="B5" s="14"/>
-      <c r="C5" s="81">
+      <c r="C5" s="79">
         <v>43771</v>
       </c>
-      <c r="D5" s="82">
+      <c r="D5" s="80">
         <v>56</v>
       </c>
-      <c r="E5" s="83">
+      <c r="E5" s="81">
         <f>(E4-3.6)</f>
         <v>58.4</v>
       </c>
@@ -7043,145 +7043,145 @@
       <c r="G5" s="4"/>
       <c r="X5" s="30"/>
       <c r="Y5" s="31" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="Z5" s="24">
         <v>14</v>
       </c>
-      <c r="AA5" s="147">
+      <c r="AA5" s="155">
         <f t="shared" ref="AA5:AA8" si="0">(Z5/5)</f>
         <v>2.8</v>
       </c>
-      <c r="AB5" s="148"/>
-      <c r="AE5" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF5" s="120" t="s">
-        <v>74</v>
+      <c r="AB5" s="156"/>
+      <c r="AE5" s="111" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF5" s="114" t="s">
+        <v>48</v>
       </c>
       <c r="AG5" s="58" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AH5" s="59" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:35" ht="18" customHeight="1">
       <c r="B6" s="14"/>
-      <c r="C6" s="81">
+      <c r="C6" s="79">
         <v>43772</v>
       </c>
-      <c r="D6" s="82">
+      <c r="D6" s="80">
         <v>52</v>
       </c>
-      <c r="E6" s="83">
+      <c r="E6" s="81">
         <f t="shared" ref="E6:E21" si="1">(E5-3.6)</f>
         <v>54.8</v>
       </c>
       <c r="F6" s="15"/>
       <c r="X6" s="14"/>
       <c r="Y6" s="32" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="Z6" s="23">
         <v>14</v>
       </c>
-      <c r="AA6" s="147">
+      <c r="AA6" s="155">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="AB6" s="148"/>
+      <c r="AB6" s="156"/>
       <c r="AE6" s="27"/>
-      <c r="AF6" s="132" t="s">
-        <v>75</v>
+      <c r="AF6" s="126" t="s">
+        <v>49</v>
       </c>
       <c r="AG6" s="52" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AH6" s="53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:35" ht="18" customHeight="1">
       <c r="B7" s="14"/>
-      <c r="C7" s="81">
+      <c r="C7" s="79">
         <v>43773</v>
       </c>
-      <c r="D7" s="82">
+      <c r="D7" s="80">
         <v>48</v>
       </c>
-      <c r="E7" s="83">
+      <c r="E7" s="81">
         <f t="shared" si="1"/>
         <v>51.199999999999996</v>
       </c>
       <c r="F7" s="15"/>
       <c r="X7" s="14"/>
       <c r="Y7" s="32" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Z7" s="23">
         <v>10</v>
       </c>
-      <c r="AA7" s="147">
+      <c r="AA7" s="155">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AB7" s="148"/>
+      <c r="AB7" s="156"/>
       <c r="AE7" s="27"/>
-      <c r="AF7" s="69" t="s">
-        <v>72</v>
+      <c r="AF7" s="67" t="s">
+        <v>50</v>
       </c>
       <c r="AG7" s="52" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AH7" s="53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:35" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:35" ht="18" customHeight="1" thickBot="1">
       <c r="B8" s="14"/>
-      <c r="C8" s="81">
+      <c r="C8" s="79">
         <v>43774</v>
       </c>
-      <c r="D8" s="82">
+      <c r="D8" s="80">
         <v>44</v>
       </c>
-      <c r="E8" s="83">
+      <c r="E8" s="81">
         <f t="shared" si="1"/>
         <v>47.599999999999994</v>
       </c>
       <c r="F8" s="15"/>
       <c r="Y8" s="28" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="Z8" s="29">
         <v>10</v>
       </c>
-      <c r="AA8" s="149">
+      <c r="AA8" s="157">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AB8" s="150"/>
+      <c r="AB8" s="158"/>
       <c r="AE8" s="27"/>
-      <c r="AF8" s="69" t="s">
-        <v>73</v>
+      <c r="AF8" s="67" t="s">
+        <v>51</v>
       </c>
       <c r="AG8" s="52" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AH8" s="53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="2:35" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:35" ht="18" customHeight="1" thickTop="1" thickBot="1">
       <c r="B9" s="14"/>
-      <c r="C9" s="81">
+      <c r="C9" s="79">
         <v>43775</v>
       </c>
-      <c r="D9" s="82">
+      <c r="D9" s="80">
         <v>40</v>
       </c>
-      <c r="E9" s="83">
+      <c r="E9" s="81">
         <f t="shared" si="1"/>
         <v>43.999999999999993</v>
       </c>
@@ -7192,31 +7192,31 @@
         <f>SUM(Z4:Z8)</f>
         <v>62</v>
       </c>
-      <c r="AA9" s="151">
+      <c r="AA9" s="159">
         <f>SUM(AA4:AA8)</f>
         <v>12.399999999999999</v>
       </c>
-      <c r="AB9" s="152"/>
+      <c r="AB9" s="160"/>
       <c r="AE9" s="27"/>
-      <c r="AF9" s="120" t="s">
-        <v>63</v>
+      <c r="AF9" s="114" t="s">
+        <v>52</v>
       </c>
       <c r="AG9" s="52" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AH9" s="53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="2:35" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:35" ht="18" customHeight="1" thickTop="1">
       <c r="B10" s="14"/>
-      <c r="C10" s="81">
+      <c r="C10" s="79">
         <v>43776</v>
       </c>
-      <c r="D10" s="82">
+      <c r="D10" s="80">
         <v>40</v>
       </c>
-      <c r="E10" s="83">
+      <c r="E10" s="81">
         <f t="shared" si="1"/>
         <v>40.399999999999991</v>
       </c>
@@ -7224,49 +7224,49 @@
       <c r="Y10" s="42"/>
       <c r="Z10" s="41"/>
       <c r="AE10" s="27"/>
-      <c r="AF10" s="69" t="s">
-        <v>64</v>
+      <c r="AF10" s="67" t="s">
+        <v>53</v>
       </c>
       <c r="AG10" s="52" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AH10" s="53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:35" ht="18" customHeight="1">
       <c r="B11" s="14"/>
-      <c r="C11" s="81">
+      <c r="C11" s="79">
         <v>43777</v>
       </c>
-      <c r="D11" s="82">
+      <c r="D11" s="80">
         <v>40</v>
       </c>
-      <c r="E11" s="83">
+      <c r="E11" s="81">
         <f t="shared" si="1"/>
         <v>36.79999999999999</v>
       </c>
       <c r="F11" s="15"/>
       <c r="AE11" s="27"/>
-      <c r="AF11" s="120" t="s">
-        <v>65</v>
+      <c r="AF11" s="114" t="s">
+        <v>55</v>
       </c>
       <c r="AG11" s="52" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AH11" s="53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:35" ht="18" customHeight="1">
       <c r="B12" s="14"/>
-      <c r="C12" s="81">
+      <c r="C12" s="79">
         <v>43778</v>
       </c>
-      <c r="D12" s="82">
+      <c r="D12" s="80">
         <v>36</v>
       </c>
-      <c r="E12" s="83">
+      <c r="E12" s="81">
         <f t="shared" si="1"/>
         <v>33.199999999999989</v>
       </c>
@@ -7276,167 +7276,171 @@
       <c r="Z12" s="7"/>
       <c r="AA12" s="1"/>
       <c r="AE12" s="27"/>
-      <c r="AF12" s="69" t="s">
-        <v>66</v>
+      <c r="AF12" s="67" t="s">
+        <v>56</v>
       </c>
       <c r="AG12" s="52" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AH12" s="53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="2:35" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="2:35" ht="18" customHeight="1" thickBot="1">
       <c r="B13" s="14"/>
-      <c r="C13" s="81">
+      <c r="C13" s="79">
         <v>43779</v>
       </c>
-      <c r="D13" s="82">
+      <c r="D13" s="80">
         <v>33</v>
       </c>
-      <c r="E13" s="83">
+      <c r="E13" s="81">
         <f t="shared" si="1"/>
         <v>29.599999999999987</v>
       </c>
       <c r="F13" s="15"/>
       <c r="X13" s="162" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Y13" s="162"/>
       <c r="Z13" s="162"/>
       <c r="AA13" s="162"/>
       <c r="AE13" s="27"/>
-      <c r="AF13" s="71" t="s">
-        <v>67</v>
+      <c r="AF13" s="69" t="s">
+        <v>57</v>
       </c>
       <c r="AG13" s="52" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="AH13" s="53" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="2:35" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:35" ht="18" customHeight="1" thickTop="1">
       <c r="B14" s="14"/>
-      <c r="C14" s="81">
+      <c r="C14" s="79">
         <v>43780</v>
       </c>
-      <c r="D14" s="82">
+      <c r="D14" s="80">
         <v>29</v>
       </c>
-      <c r="E14" s="83">
+      <c r="E14" s="81">
         <f t="shared" si="1"/>
         <v>25.999999999999986</v>
       </c>
       <c r="F14" s="15"/>
       <c r="X14" s="33"/>
       <c r="Y14" s="48" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="Z14" s="34">
         <v>43771</v>
       </c>
       <c r="AA14" s="30"/>
       <c r="AE14" s="27"/>
-      <c r="AF14" s="69" t="s">
-        <v>68</v>
+      <c r="AF14" s="67" t="s">
+        <v>58</v>
       </c>
       <c r="AG14" s="52" t="s">
         <v>59</v>
       </c>
       <c r="AH14" s="53" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:35" ht="18" customHeight="1">
       <c r="B15" s="14"/>
-      <c r="C15" s="81">
+      <c r="C15" s="79">
         <v>43781</v>
       </c>
-      <c r="D15" s="82">
+      <c r="D15" s="80">
         <v>25</v>
       </c>
-      <c r="E15" s="83">
+      <c r="E15" s="81">
         <f t="shared" si="1"/>
         <v>22.399999999999984</v>
       </c>
       <c r="F15" s="15"/>
       <c r="X15" s="35"/>
       <c r="Y15" s="43" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="Z15" s="36">
         <v>43774</v>
       </c>
       <c r="AA15" s="14"/>
       <c r="AE15" s="27"/>
-      <c r="AF15" s="120" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG15" s="52"/>
-      <c r="AH15" s="53"/>
-    </row>
-    <row r="16" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF15" s="114" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG15" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH15" s="53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="2:35" ht="18" customHeight="1">
       <c r="B16" s="14"/>
-      <c r="C16" s="81">
+      <c r="C16" s="79">
         <v>43782</v>
       </c>
-      <c r="D16" s="82">
+      <c r="D16" s="80">
         <v>21</v>
       </c>
-      <c r="E16" s="83">
+      <c r="E16" s="81">
         <f t="shared" si="1"/>
         <v>18.799999999999983</v>
       </c>
       <c r="F16" s="15"/>
       <c r="X16" s="35"/>
       <c r="Y16" s="43" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="Z16" s="37" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="AA16" s="14"/>
       <c r="AE16" s="27"/>
-      <c r="AF16" s="69"/>
+      <c r="AF16" s="67"/>
       <c r="AG16" s="52"/>
       <c r="AH16" s="53"/>
     </row>
-    <row r="17" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:35" ht="18" customHeight="1">
       <c r="B17" s="14"/>
-      <c r="C17" s="81">
+      <c r="C17" s="79">
         <v>43783</v>
       </c>
-      <c r="D17" s="82">
+      <c r="D17" s="80">
         <v>18</v>
       </c>
-      <c r="E17" s="83">
+      <c r="E17" s="81">
         <f t="shared" si="1"/>
         <v>15.199999999999983</v>
       </c>
       <c r="F17" s="15"/>
       <c r="X17" s="35"/>
       <c r="Y17" s="43" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="Z17" s="61" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AA17" s="14"/>
       <c r="AE17" s="27"/>
-      <c r="AF17" s="69"/>
+      <c r="AF17" s="67"/>
       <c r="AG17" s="52"/>
       <c r="AH17" s="53"/>
     </row>
-    <row r="18" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:35" ht="18" customHeight="1">
       <c r="B18" s="14"/>
-      <c r="C18" s="81">
+      <c r="C18" s="79">
         <v>43784</v>
       </c>
-      <c r="D18" s="82">
+      <c r="D18" s="80">
         <v>14</v>
       </c>
-      <c r="E18" s="83">
+      <c r="E18" s="81">
         <f t="shared" si="1"/>
         <v>11.599999999999984</v>
       </c>
@@ -7444,17 +7448,17 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="47"/>
       <c r="AE18" s="27"/>
-      <c r="AF18" s="71"/>
+      <c r="AF18" s="69"/>
       <c r="AG18" s="52"/>
       <c r="AH18" s="53"/>
     </row>
-    <row r="19" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:35" ht="18" customHeight="1">
       <c r="B19" s="14"/>
-      <c r="C19" s="81">
+      <c r="C19" s="79">
         <v>43785</v>
       </c>
-      <c r="D19" s="82"/>
-      <c r="E19" s="83">
+      <c r="D19" s="80"/>
+      <c r="E19" s="81">
         <f t="shared" si="1"/>
         <v>7.999999999999984</v>
       </c>
@@ -7462,17 +7466,17 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="8"/>
       <c r="AE19" s="27"/>
-      <c r="AF19" s="71"/>
+      <c r="AF19" s="69"/>
       <c r="AG19" s="52"/>
       <c r="AH19" s="53"/>
     </row>
-    <row r="20" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:35" ht="18" customHeight="1">
       <c r="B20" s="14"/>
-      <c r="C20" s="81">
+      <c r="C20" s="79">
         <v>43786</v>
       </c>
-      <c r="D20" s="82"/>
-      <c r="E20" s="83">
+      <c r="D20" s="80"/>
+      <c r="E20" s="81">
         <f t="shared" si="1"/>
         <v>4.3999999999999844</v>
       </c>
@@ -7480,81 +7484,81 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="9"/>
       <c r="AE20" s="27"/>
-      <c r="AF20" s="71"/>
+      <c r="AF20" s="69"/>
       <c r="AG20" s="52"/>
       <c r="AH20" s="53"/>
     </row>
-    <row r="21" spans="2:35" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:35" ht="18" customHeight="1" thickBot="1">
       <c r="B21" s="4"/>
-      <c r="C21" s="78">
+      <c r="C21" s="76">
         <v>43787</v>
       </c>
-      <c r="D21" s="79"/>
-      <c r="E21" s="80">
+      <c r="D21" s="77"/>
+      <c r="E21" s="78">
         <f t="shared" si="1"/>
         <v>0.79999999999998428</v>
       </c>
       <c r="F21" s="16"/>
       <c r="X21" s="162" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="Y21" s="162"/>
       <c r="Z21" s="162"/>
       <c r="AA21" s="162"/>
       <c r="AE21" s="27"/>
-      <c r="AF21" s="71"/>
+      <c r="AF21" s="69"/>
       <c r="AG21" s="52"/>
       <c r="AH21" s="53"/>
     </row>
-    <row r="22" spans="2:35" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:35" ht="18" customHeight="1" thickTop="1">
       <c r="B22" s="14"/>
-      <c r="C22" s="81">
+      <c r="C22" s="79">
         <v>43788</v>
       </c>
-      <c r="D22" s="82"/>
-      <c r="E22" s="83">
+      <c r="D22" s="80"/>
+      <c r="E22" s="81">
         <v>0</v>
       </c>
       <c r="F22" s="15"/>
       <c r="X22" s="30"/>
       <c r="Y22" s="48" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="Z22" s="34">
         <v>43777</v>
       </c>
       <c r="AA22" s="30"/>
       <c r="AE22" s="27"/>
-      <c r="AF22" s="69"/>
-      <c r="AG22" s="77"/>
-      <c r="AH22" s="77"/>
+      <c r="AF22" s="67"/>
+      <c r="AG22" s="75"/>
+      <c r="AH22" s="75"/>
       <c r="AI22" s="4"/>
     </row>
-    <row r="23" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:35" ht="18" customHeight="1">
       <c r="B23" s="4"/>
-      <c r="C23" s="84">
+      <c r="C23" s="82">
         <v>43789</v>
       </c>
-      <c r="D23" s="85"/>
-      <c r="E23" s="86">
+      <c r="D23" s="83"/>
+      <c r="E23" s="84">
         <v>0</v>
       </c>
       <c r="F23" s="17"/>
       <c r="X23" s="30"/>
       <c r="Y23" s="48" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="Z23" s="34">
         <v>43784</v>
       </c>
       <c r="AA23" s="30"/>
       <c r="AE23" s="55"/>
-      <c r="AF23" s="69"/>
+      <c r="AF23" s="67"/>
       <c r="AG23" s="38"/>
-      <c r="AH23" s="76"/>
+      <c r="AH23" s="74"/>
       <c r="AI23" s="4"/>
     </row>
-    <row r="24" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:35" ht="18" customHeight="1">
       <c r="B24" s="18"/>
       <c r="C24" s="22"/>
       <c r="D24" s="26"/>
@@ -7562,44 +7566,44 @@
       <c r="F24" s="11"/>
       <c r="X24" s="30"/>
       <c r="Y24" s="48" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="Z24" s="49" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="AA24" s="30"/>
-      <c r="AE24" s="74"/>
-      <c r="AF24" s="69"/>
+      <c r="AE24" s="72"/>
+      <c r="AF24" s="67"/>
       <c r="AG24" s="51"/>
-      <c r="AH24" s="75"/>
+      <c r="AH24" s="73"/>
       <c r="AI24" s="4"/>
     </row>
-    <row r="25" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:35" ht="18" customHeight="1">
       <c r="C25" s="13"/>
       <c r="X25" s="30"/>
       <c r="Y25" s="48" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="Z25" s="61" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AA25" s="30"/>
-      <c r="AE25" s="72"/>
-      <c r="AF25" s="132"/>
+      <c r="AE25" s="70"/>
+      <c r="AF25" s="126"/>
       <c r="AG25" s="4"/>
-      <c r="AH25" s="76"/>
+      <c r="AH25" s="74"/>
       <c r="AI25" s="4"/>
     </row>
-    <row r="26" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:35" ht="18" customHeight="1">
       <c r="C26" s="13"/>
       <c r="Y26" s="44"/>
       <c r="Z26" s="8"/>
-      <c r="AE26" s="72"/>
-      <c r="AF26" s="125"/>
-      <c r="AG26" s="176"/>
-      <c r="AH26" s="177"/>
-    </row>
-    <row r="27" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE26" s="70"/>
+      <c r="AF26" s="119"/>
+      <c r="AG26" s="131"/>
+      <c r="AH26" s="132"/>
+    </row>
+    <row r="27" spans="2:35" ht="18" customHeight="1">
       <c r="C27" s="13"/>
       <c r="P27" s="45"/>
       <c r="Q27" s="45"/>
@@ -7612,30 +7616,30 @@
       <c r="AF27" s="4"/>
       <c r="AG27" s="4"/>
     </row>
-    <row r="28" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:35" ht="18" customHeight="1">
       <c r="C28" s="13"/>
       <c r="P28" s="45"/>
       <c r="Q28" s="45"/>
       <c r="R28" s="45"/>
       <c r="S28" s="45"/>
       <c r="T28" s="45"/>
-      <c r="X28" s="64"/>
-      <c r="Y28" s="64"/>
-      <c r="Z28" s="67"/>
-      <c r="AA28" s="64"/>
-      <c r="AB28" s="64"/>
+      <c r="X28" s="62"/>
+      <c r="Y28" s="62"/>
+      <c r="Z28" s="65"/>
+      <c r="AA28" s="62"/>
+      <c r="AB28" s="62"/>
       <c r="AE28" s="46"/>
       <c r="AF28" s="4"/>
     </row>
-    <row r="29" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="135"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="135"/>
-      <c r="G29" s="135"/>
-      <c r="H29" s="135"/>
-      <c r="I29" s="135"/>
-      <c r="J29" s="135"/>
+    <row r="29" spans="2:35" ht="18" customHeight="1">
+      <c r="C29" s="129"/>
+      <c r="D29" s="129"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="129"/>
+      <c r="J29" s="129"/>
       <c r="P29" s="45"/>
       <c r="Q29" s="45"/>
       <c r="R29" s="45"/>
@@ -7645,216 +7649,223 @@
       <c r="Y29" s="163"/>
       <c r="Z29" s="163"/>
       <c r="AA29" s="163"/>
-      <c r="AB29" s="64"/>
+      <c r="AB29" s="62"/>
       <c r="AE29" s="46"/>
       <c r="AF29" s="4"/>
     </row>
-    <row r="30" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="135"/>
-      <c r="D30" s="135"/>
-      <c r="E30" s="135"/>
-      <c r="F30" s="135"/>
-      <c r="G30" s="135"/>
-      <c r="H30" s="135"/>
-      <c r="I30" s="135"/>
-      <c r="J30" s="135"/>
+    <row r="30" spans="2:35" ht="18" customHeight="1">
+      <c r="C30" s="129"/>
+      <c r="D30" s="129"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="129"/>
+      <c r="I30" s="129"/>
+      <c r="J30" s="129"/>
       <c r="P30" s="45"/>
       <c r="Q30" s="45"/>
       <c r="R30" s="45"/>
       <c r="S30" s="45"/>
       <c r="T30" s="45"/>
-      <c r="X30" s="64"/>
-      <c r="Y30" s="65"/>
-      <c r="Z30" s="66"/>
-      <c r="AA30" s="64"/>
-      <c r="AB30" s="64"/>
+      <c r="X30" s="62"/>
+      <c r="Y30" s="63"/>
+      <c r="Z30" s="64"/>
+      <c r="AA30" s="62"/>
+      <c r="AB30" s="62"/>
       <c r="AE30" s="46"/>
       <c r="AF30" s="4"/>
     </row>
-    <row r="31" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="135"/>
-      <c r="D31" s="135"/>
-      <c r="E31" s="135"/>
-      <c r="F31" s="135"/>
-      <c r="G31" s="135"/>
-      <c r="H31" s="135"/>
-      <c r="I31" s="135"/>
-      <c r="J31" s="135"/>
+    <row r="31" spans="2:35" ht="18" customHeight="1">
+      <c r="C31" s="129"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="129"/>
+      <c r="I31" s="129"/>
+      <c r="J31" s="129"/>
       <c r="K31" s="4"/>
       <c r="P31" s="45"/>
       <c r="Q31" s="45"/>
       <c r="R31" s="45"/>
       <c r="S31" s="45"/>
       <c r="T31" s="45"/>
-      <c r="X31" s="64"/>
-      <c r="Y31" s="65"/>
-      <c r="Z31" s="66"/>
-      <c r="AA31" s="64"/>
-      <c r="AB31" s="64"/>
+      <c r="X31" s="62"/>
+      <c r="Y31" s="63"/>
+      <c r="Z31" s="64"/>
+      <c r="AA31" s="62"/>
+      <c r="AB31" s="62"/>
       <c r="AE31" s="46"/>
       <c r="AF31" s="4"/>
     </row>
-    <row r="32" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="135"/>
-      <c r="D32" s="135"/>
-      <c r="E32" s="135"/>
-      <c r="F32" s="135"/>
-      <c r="G32" s="135"/>
-      <c r="H32" s="135"/>
-      <c r="I32" s="135"/>
-      <c r="J32" s="135"/>
+    <row r="32" spans="2:35" ht="18" customHeight="1">
+      <c r="C32" s="129"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="129"/>
+      <c r="H32" s="129"/>
+      <c r="I32" s="129"/>
+      <c r="J32" s="129"/>
       <c r="P32" s="45"/>
       <c r="Q32" s="45"/>
       <c r="R32" s="45"/>
       <c r="S32" s="45"/>
       <c r="T32" s="45"/>
-      <c r="X32" s="64"/>
-      <c r="Y32" s="65"/>
-      <c r="Z32" s="67"/>
-      <c r="AA32" s="64"/>
-      <c r="AB32" s="64"/>
+      <c r="X32" s="62"/>
+      <c r="Y32" s="63"/>
+      <c r="Z32" s="65"/>
+      <c r="AA32" s="62"/>
+      <c r="AB32" s="62"/>
       <c r="AE32" s="46"/>
       <c r="AF32" s="4"/>
     </row>
-    <row r="33" spans="3:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="135"/>
-      <c r="D33" s="135"/>
-      <c r="E33" s="135"/>
-      <c r="F33" s="135"/>
-      <c r="G33" s="135"/>
-      <c r="H33" s="135"/>
-      <c r="I33" s="135"/>
-      <c r="J33" s="135"/>
+    <row r="33" spans="3:31" ht="18" customHeight="1">
+      <c r="C33" s="129"/>
+      <c r="D33" s="129"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="129"/>
+      <c r="G33" s="129"/>
+      <c r="H33" s="129"/>
+      <c r="I33" s="129"/>
+      <c r="J33" s="129"/>
       <c r="P33" s="45"/>
       <c r="Q33" s="45"/>
       <c r="R33" s="45"/>
       <c r="S33" s="45"/>
       <c r="T33" s="45"/>
-      <c r="X33" s="64"/>
-      <c r="Y33" s="65"/>
-      <c r="Z33" s="68"/>
-      <c r="AA33" s="64"/>
-      <c r="AB33" s="64"/>
+      <c r="X33" s="62"/>
+      <c r="Y33" s="63"/>
+      <c r="Z33" s="66"/>
+      <c r="AA33" s="62"/>
+      <c r="AB33" s="62"/>
       <c r="AE33" s="46"/>
     </row>
-    <row r="34" spans="3:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="135"/>
-      <c r="D34" s="135"/>
-      <c r="E34" s="135"/>
-      <c r="F34" s="135"/>
-      <c r="G34" s="135"/>
-      <c r="H34" s="135"/>
-      <c r="I34" s="135"/>
-      <c r="J34" s="135"/>
+    <row r="34" spans="3:31" ht="18" customHeight="1">
+      <c r="C34" s="129"/>
+      <c r="D34" s="129"/>
+      <c r="E34" s="129"/>
+      <c r="F34" s="129"/>
+      <c r="G34" s="129"/>
+      <c r="H34" s="129"/>
+      <c r="I34" s="129"/>
+      <c r="J34" s="129"/>
       <c r="P34" s="45"/>
       <c r="Q34" s="45"/>
       <c r="R34" s="45"/>
       <c r="S34" s="45"/>
       <c r="T34" s="45"/>
-      <c r="X34" s="64"/>
-      <c r="Y34" s="65"/>
-      <c r="Z34" s="87"/>
-      <c r="AA34" s="64"/>
-      <c r="AB34" s="64"/>
+      <c r="X34" s="62"/>
+      <c r="Y34" s="63"/>
+      <c r="Z34" s="85"/>
+      <c r="AA34" s="62"/>
+      <c r="AB34" s="62"/>
       <c r="AE34" s="46"/>
     </row>
-    <row r="35" spans="3:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:31" ht="18" customHeight="1">
       <c r="C35" s="13"/>
       <c r="P35" s="45"/>
       <c r="Q35" s="45"/>
       <c r="R35" s="45"/>
       <c r="S35" s="45"/>
       <c r="T35" s="45"/>
-      <c r="X35" s="64"/>
-      <c r="Y35" s="65"/>
-      <c r="Z35" s="87"/>
-      <c r="AA35" s="64"/>
-      <c r="AB35" s="64"/>
+      <c r="X35" s="62"/>
+      <c r="Y35" s="63"/>
+      <c r="Z35" s="85"/>
+      <c r="AA35" s="62"/>
+      <c r="AB35" s="62"/>
       <c r="AE35" s="46"/>
     </row>
-    <row r="36" spans="3:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:31" ht="18" customHeight="1">
       <c r="C36" s="13"/>
       <c r="P36" s="45"/>
       <c r="Q36" s="45"/>
       <c r="R36" s="45"/>
       <c r="S36" s="45"/>
       <c r="T36" s="45"/>
-      <c r="X36" s="64"/>
-      <c r="Y36" s="64"/>
-      <c r="Z36" s="67"/>
-      <c r="AA36" s="64"/>
-      <c r="AB36" s="64"/>
+      <c r="X36" s="62"/>
+      <c r="Y36" s="62"/>
+      <c r="Z36" s="65"/>
+      <c r="AA36" s="62"/>
+      <c r="AB36" s="62"/>
       <c r="AE36" s="46"/>
     </row>
-    <row r="37" spans="3:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:31" ht="18" customHeight="1">
       <c r="P37" s="45"/>
       <c r="Q37" s="45"/>
       <c r="R37" s="45"/>
       <c r="S37" s="45"/>
       <c r="T37" s="45"/>
-      <c r="W37" s="64"/>
-      <c r="X37" s="137"/>
-      <c r="Y37" s="137"/>
-      <c r="Z37" s="137"/>
-      <c r="AA37" s="137"/>
-      <c r="AB37" s="64"/>
-    </row>
-    <row r="38" spans="3:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W37" s="62"/>
+      <c r="X37" s="145"/>
+      <c r="Y37" s="145"/>
+      <c r="Z37" s="145"/>
+      <c r="AA37" s="145"/>
+      <c r="AB37" s="62"/>
+    </row>
+    <row r="38" spans="3:31" ht="18" customHeight="1">
       <c r="P38" s="45"/>
       <c r="Q38" s="45"/>
       <c r="R38" s="45"/>
       <c r="S38" s="45"/>
       <c r="T38" s="45"/>
-      <c r="W38" s="64"/>
-      <c r="X38" s="64"/>
-      <c r="Y38" s="65"/>
-      <c r="Z38" s="66"/>
-      <c r="AA38" s="64"/>
-      <c r="AB38" s="64"/>
-    </row>
-    <row r="39" spans="3:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W39" s="64"/>
-      <c r="X39" s="64"/>
-      <c r="Y39" s="65"/>
-      <c r="Z39" s="66"/>
-      <c r="AA39" s="64"/>
-      <c r="AB39" s="64"/>
-    </row>
-    <row r="40" spans="3:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W40" s="64"/>
-      <c r="X40" s="64"/>
-      <c r="Y40" s="65"/>
-      <c r="Z40" s="67"/>
-      <c r="AA40" s="64"/>
-      <c r="AB40" s="64"/>
-    </row>
-    <row r="41" spans="3:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W41" s="64"/>
-      <c r="X41" s="64"/>
-      <c r="Y41" s="65"/>
-      <c r="Z41" s="68"/>
-      <c r="AA41" s="64"/>
-      <c r="AB41" s="64"/>
-    </row>
-    <row r="42" spans="3:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W42" s="64"/>
-      <c r="X42" s="64"/>
-      <c r="Y42" s="64"/>
-      <c r="Z42" s="67"/>
-      <c r="AA42" s="64"/>
-      <c r="AB42" s="64"/>
-    </row>
-    <row r="43" spans="3:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W43" s="64"/>
-      <c r="X43" s="64"/>
-      <c r="Y43" s="64"/>
-      <c r="Z43" s="67"/>
-      <c r="AA43" s="64"/>
-      <c r="AB43" s="64"/>
-    </row>
-    <row r="44" spans="3:31" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="W38" s="62"/>
+      <c r="X38" s="62"/>
+      <c r="Y38" s="63"/>
+      <c r="Z38" s="64"/>
+      <c r="AA38" s="62"/>
+      <c r="AB38" s="62"/>
+    </row>
+    <row r="39" spans="3:31" ht="18" customHeight="1">
+      <c r="W39" s="62"/>
+      <c r="X39" s="62"/>
+      <c r="Y39" s="63"/>
+      <c r="Z39" s="64"/>
+      <c r="AA39" s="62"/>
+      <c r="AB39" s="62"/>
+    </row>
+    <row r="40" spans="3:31" ht="18" customHeight="1">
+      <c r="W40" s="62"/>
+      <c r="X40" s="62"/>
+      <c r="Y40" s="63"/>
+      <c r="Z40" s="65"/>
+      <c r="AA40" s="62"/>
+      <c r="AB40" s="62"/>
+    </row>
+    <row r="41" spans="3:31" ht="18" customHeight="1">
+      <c r="W41" s="62"/>
+      <c r="X41" s="62"/>
+      <c r="Y41" s="63"/>
+      <c r="Z41" s="66"/>
+      <c r="AA41" s="62"/>
+      <c r="AB41" s="62"/>
+    </row>
+    <row r="42" spans="3:31" ht="18" customHeight="1">
+      <c r="W42" s="62"/>
+      <c r="X42" s="62"/>
+      <c r="Y42" s="62"/>
+      <c r="Z42" s="65"/>
+      <c r="AA42" s="62"/>
+      <c r="AB42" s="62"/>
+    </row>
+    <row r="43" spans="3:31" ht="18" customHeight="1">
+      <c r="W43" s="62"/>
+      <c r="X43" s="62"/>
+      <c r="Y43" s="62"/>
+      <c r="Z43" s="65"/>
+      <c r="AA43" s="62"/>
+      <c r="AB43" s="62"/>
+    </row>
+    <row r="44" spans="3:31" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="B1:AI1"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AD3:AH3"/>
+    <mergeCell ref="X3:Y3"/>
     <mergeCell ref="X37:AA37"/>
     <mergeCell ref="AA6:AB6"/>
     <mergeCell ref="AA7:AB7"/>
@@ -7862,13 +7873,6 @@
     <mergeCell ref="AA9:AB9"/>
     <mergeCell ref="X21:AA21"/>
     <mergeCell ref="X29:AA29"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="B1:AI1"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AD3:AH3"/>
-    <mergeCell ref="X3:Y3"/>
     <mergeCell ref="X13:AA13"/>
   </mergeCells>
   <conditionalFormatting sqref="AG5:AG21">
@@ -7925,11 +7929,11 @@
   </sheetPr>
   <dimension ref="A1:AK44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
     <col min="2" max="2" width="3.140625" customWidth="1"/>
@@ -7949,45 +7953,45 @@
     <col min="34" max="34" width="16.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="154"/>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="154"/>
-      <c r="S1" s="154"/>
-      <c r="T1" s="154"/>
-      <c r="U1" s="154"/>
-      <c r="V1" s="154"/>
-      <c r="W1" s="154"/>
-      <c r="X1" s="154"/>
-      <c r="Y1" s="154"/>
-      <c r="Z1" s="154"/>
-      <c r="AA1" s="154"/>
-      <c r="AB1" s="154"/>
-      <c r="AC1" s="154"/>
-      <c r="AD1" s="154"/>
-      <c r="AE1" s="154"/>
-      <c r="AF1" s="154"/>
-      <c r="AG1" s="154"/>
-      <c r="AH1" s="154"/>
-      <c r="AI1" s="154"/>
-    </row>
-    <row r="2" spans="1:37" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="41.25" customHeight="1" thickBot="1">
+      <c r="B1" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
+      <c r="U1" s="139"/>
+      <c r="V1" s="139"/>
+      <c r="W1" s="139"/>
+      <c r="X1" s="139"/>
+      <c r="Y1" s="139"/>
+      <c r="Z1" s="139"/>
+      <c r="AA1" s="139"/>
+      <c r="AB1" s="139"/>
+      <c r="AC1" s="139"/>
+      <c r="AD1" s="139"/>
+      <c r="AE1" s="139"/>
+      <c r="AF1" s="139"/>
+      <c r="AG1" s="139"/>
+      <c r="AH1" s="139"/>
+      <c r="AI1" s="139"/>
+    </row>
+    <row r="2" spans="1:37" ht="18.75" customHeight="1" thickTop="1">
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -8021,86 +8025,86 @@
       <c r="AG2" s="10"/>
       <c r="AH2" s="10"/>
     </row>
-    <row r="3" spans="1:37" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="114"/>
-      <c r="C3" s="114" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="114" t="s">
+    <row r="3" spans="1:37" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B3" s="137"/>
+      <c r="C3" s="137" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="114" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="115"/>
-      <c r="X3" s="170" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y3" s="170"/>
-      <c r="Z3" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA3" s="170" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB3" s="170"/>
-      <c r="AD3" s="174" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE3" s="174"/>
-      <c r="AF3" s="174"/>
-      <c r="AG3" s="174"/>
-      <c r="AH3" s="174"/>
-    </row>
-    <row r="4" spans="1:37" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="171"/>
+      <c r="E3" s="137" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="112"/>
+      <c r="X3" s="166" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="166"/>
+      <c r="Z3" s="137" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA3" s="166" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB3" s="166"/>
+      <c r="AD3" s="167" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE3" s="167"/>
+      <c r="AF3" s="167"/>
+      <c r="AG3" s="167"/>
+      <c r="AH3" s="167"/>
+    </row>
+    <row r="4" spans="1:37" ht="19.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A4" s="169"/>
       <c r="B4" s="30"/>
-      <c r="C4" s="78">
+      <c r="C4" s="76">
         <v>43770</v>
       </c>
-      <c r="D4" s="79">
+      <c r="D4" s="77">
         <v>60</v>
       </c>
-      <c r="E4" s="80">
+      <c r="E4" s="78">
         <v>62</v>
       </c>
       <c r="F4" s="60"/>
       <c r="X4" s="30"/>
       <c r="Y4" s="31" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Z4" s="24">
         <v>14</v>
       </c>
-      <c r="AA4" s="157">
+      <c r="AA4" s="142">
         <f>(Z4/5)</f>
         <v>2.8</v>
       </c>
-      <c r="AB4" s="158"/>
-      <c r="AD4" s="175" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE4" s="175"/>
-      <c r="AF4" s="116" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG4" s="116" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH4" s="116" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="171"/>
+      <c r="AB4" s="143"/>
+      <c r="AD4" s="168" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE4" s="168"/>
+      <c r="AF4" s="138" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG4" s="138" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH4" s="138" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" ht="18" customHeight="1" thickTop="1">
+      <c r="A5" s="169"/>
       <c r="B5" s="14"/>
-      <c r="C5" s="81">
+      <c r="C5" s="79">
         <v>43771</v>
       </c>
-      <c r="D5" s="82">
+      <c r="D5" s="80">
         <v>56</v>
       </c>
-      <c r="E5" s="83">
+      <c r="E5" s="81">
         <f>(E4-3.6)</f>
         <v>58.4</v>
       </c>
@@ -8108,144 +8112,144 @@
       <c r="G5" s="4"/>
       <c r="X5" s="30"/>
       <c r="Y5" s="31" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="Z5" s="24">
         <v>14</v>
       </c>
-      <c r="AA5" s="147">
+      <c r="AA5" s="155">
         <f t="shared" ref="AA5:AA8" si="0">(Z5/5)</f>
         <v>2.8</v>
       </c>
-      <c r="AB5" s="148"/>
-      <c r="AE5" s="113" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF5" s="121" t="s">
+      <c r="AB5" s="156"/>
+      <c r="AE5" s="111" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF5" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG5" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH5" s="59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" ht="18" customHeight="1">
+      <c r="A6" s="169"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="79">
+        <v>43772</v>
+      </c>
+      <c r="D6" s="80">
         <v>52</v>
       </c>
-      <c r="AG5" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH5" s="59" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="171"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="81">
-        <v>43772</v>
-      </c>
-      <c r="D6" s="82">
-        <v>52</v>
-      </c>
-      <c r="E6" s="83">
+      <c r="E6" s="81">
         <f t="shared" ref="E6:E21" si="1">(E5-3.6)</f>
         <v>54.8</v>
       </c>
       <c r="F6" s="15"/>
       <c r="X6" s="14"/>
       <c r="Y6" s="32" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="Z6" s="23">
         <v>14</v>
       </c>
-      <c r="AA6" s="147">
+      <c r="AA6" s="155">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="AB6" s="148"/>
+      <c r="AB6" s="156"/>
       <c r="AE6" s="27"/>
-      <c r="AF6" s="69" t="s">
-        <v>53</v>
+      <c r="AF6" s="67" t="s">
+        <v>66</v>
       </c>
       <c r="AG6" s="52" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AH6" s="53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="171"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" ht="18" customHeight="1">
+      <c r="A7" s="169"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="81">
+      <c r="C7" s="79">
         <v>43773</v>
       </c>
-      <c r="D7" s="82">
+      <c r="D7" s="80">
         <v>48</v>
       </c>
-      <c r="E7" s="83">
+      <c r="E7" s="81">
         <f t="shared" si="1"/>
         <v>51.199999999999996</v>
       </c>
       <c r="F7" s="15"/>
       <c r="X7" s="14"/>
       <c r="Y7" s="32" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Z7" s="23">
         <v>10</v>
       </c>
-      <c r="AA7" s="147">
+      <c r="AA7" s="155">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AB7" s="148"/>
+      <c r="AB7" s="156"/>
       <c r="AE7" s="27"/>
-      <c r="AF7" s="164" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG7" s="166" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH7" s="168" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="171"/>
+      <c r="AF7" s="172" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG7" s="174" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH7" s="176" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" ht="18" customHeight="1" thickBot="1">
+      <c r="A8" s="169"/>
       <c r="B8" s="14"/>
-      <c r="C8" s="81">
+      <c r="C8" s="79">
         <v>43774</v>
       </c>
-      <c r="D8" s="82">
+      <c r="D8" s="80">
         <v>44</v>
       </c>
-      <c r="E8" s="83">
+      <c r="E8" s="81">
         <f t="shared" si="1"/>
         <v>47.599999999999994</v>
       </c>
       <c r="F8" s="15"/>
       <c r="Y8" s="28" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="Z8" s="29">
         <v>10</v>
       </c>
-      <c r="AA8" s="149">
+      <c r="AA8" s="157">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AB8" s="150"/>
-      <c r="AD8" s="127"/>
+      <c r="AB8" s="158"/>
+      <c r="AD8" s="121"/>
       <c r="AE8" s="27"/>
-      <c r="AF8" s="165"/>
-      <c r="AG8" s="167"/>
-      <c r="AH8" s="169"/>
-    </row>
-    <row r="9" spans="1:37" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="88"/>
+      <c r="AF8" s="173"/>
+      <c r="AG8" s="175"/>
+      <c r="AH8" s="177"/>
+    </row>
+    <row r="9" spans="1:37" ht="18" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A9" s="86"/>
       <c r="B9" s="30"/>
-      <c r="C9" s="78">
+      <c r="C9" s="76">
         <v>43775</v>
       </c>
-      <c r="D9" s="79">
+      <c r="D9" s="77">
         <v>40</v>
       </c>
-      <c r="E9" s="91">
+      <c r="E9" s="89">
         <f t="shared" si="1"/>
         <v>43.999999999999993</v>
       </c>
@@ -8256,35 +8260,35 @@
         <f>SUM(Z4:Z8)</f>
         <v>62</v>
       </c>
-      <c r="AA9" s="151">
+      <c r="AA9" s="159">
         <f>SUM(AA4:AA8)</f>
         <v>12.399999999999999</v>
       </c>
-      <c r="AB9" s="152"/>
+      <c r="AB9" s="160"/>
       <c r="AD9" s="4"/>
-      <c r="AE9" s="126" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF9" s="120" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG9" s="129" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH9" s="128" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="88"/>
+      <c r="AE9" s="120" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF9" s="114" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG9" s="123" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH9" s="122" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" ht="18" customHeight="1" thickTop="1">
+      <c r="A10" s="86"/>
       <c r="B10" s="14"/>
-      <c r="C10" s="81">
+      <c r="C10" s="79">
         <v>43776</v>
       </c>
-      <c r="D10" s="82">
+      <c r="D10" s="80">
         <v>40</v>
       </c>
-      <c r="E10" s="83">
+      <c r="E10" s="81">
         <f t="shared" si="1"/>
         <v>40.399999999999991</v>
       </c>
@@ -8292,51 +8296,51 @@
       <c r="Y10" s="42"/>
       <c r="Z10" s="41"/>
       <c r="AE10" s="27"/>
-      <c r="AF10" s="69" t="s">
-        <v>56</v>
+      <c r="AF10" s="67" t="s">
+        <v>70</v>
       </c>
       <c r="AG10" s="52" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AH10" s="53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="89"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" ht="18" customHeight="1">
+      <c r="A11" s="87"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="81">
+      <c r="C11" s="79">
         <v>43777</v>
       </c>
-      <c r="D11" s="82">
+      <c r="D11" s="80">
         <v>40</v>
       </c>
-      <c r="E11" s="90">
+      <c r="E11" s="88">
         <f t="shared" si="1"/>
         <v>36.79999999999999</v>
       </c>
       <c r="F11" s="15"/>
       <c r="AE11" s="27"/>
-      <c r="AF11" s="69" t="s">
-        <v>58</v>
+      <c r="AF11" s="67" t="s">
+        <v>71</v>
       </c>
       <c r="AG11" s="52" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AH11" s="53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="172"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" ht="18" customHeight="1">
+      <c r="A12" s="170"/>
       <c r="B12" s="30"/>
-      <c r="C12" s="78">
+      <c r="C12" s="76">
         <v>43778</v>
       </c>
-      <c r="D12" s="79">
+      <c r="D12" s="77">
         <v>36</v>
       </c>
-      <c r="E12" s="80">
+      <c r="E12" s="78">
         <f t="shared" si="1"/>
         <v>33.199999999999989</v>
       </c>
@@ -8346,166 +8350,166 @@
       <c r="Z12" s="7"/>
       <c r="AA12" s="1"/>
       <c r="AE12" s="27"/>
-      <c r="AF12" s="69" t="s">
-        <v>57</v>
+      <c r="AF12" s="67" t="s">
+        <v>72</v>
       </c>
       <c r="AG12" s="52" t="s">
         <v>59</v>
       </c>
       <c r="AH12" s="53" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="172"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" ht="18" customHeight="1" thickBot="1">
+      <c r="A13" s="170"/>
       <c r="B13" s="14"/>
-      <c r="C13" s="81">
+      <c r="C13" s="79">
         <v>43779</v>
       </c>
-      <c r="D13" s="82">
+      <c r="D13" s="80">
         <v>33</v>
       </c>
-      <c r="E13" s="83">
+      <c r="E13" s="81">
         <f t="shared" si="1"/>
         <v>29.599999999999987</v>
       </c>
       <c r="F13" s="15"/>
-      <c r="X13" s="170" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y13" s="170"/>
-      <c r="Z13" s="170"/>
-      <c r="AA13" s="170"/>
+      <c r="X13" s="166" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y13" s="166"/>
+      <c r="Z13" s="166"/>
+      <c r="AA13" s="166"/>
       <c r="AE13" s="27"/>
-      <c r="AF13" s="69"/>
+      <c r="AF13" s="67"/>
       <c r="AG13" s="52"/>
       <c r="AH13" s="53"/>
     </row>
-    <row r="14" spans="1:37" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="172"/>
+    <row r="14" spans="1:37" ht="18" customHeight="1" thickTop="1">
+      <c r="A14" s="170"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="81">
+      <c r="C14" s="79">
         <v>43780</v>
       </c>
-      <c r="D14" s="82">
+      <c r="D14" s="80">
         <v>29</v>
       </c>
-      <c r="E14" s="83">
+      <c r="E14" s="81">
         <f t="shared" si="1"/>
         <v>25.999999999999986</v>
       </c>
       <c r="F14" s="15"/>
       <c r="X14" s="33"/>
       <c r="Y14" s="48" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="Z14" s="34">
         <v>43770</v>
       </c>
       <c r="AA14" s="30"/>
       <c r="AE14" s="27"/>
-      <c r="AF14" s="71"/>
+      <c r="AF14" s="69"/>
       <c r="AG14" s="52"/>
       <c r="AH14" s="53"/>
     </row>
-    <row r="15" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="172"/>
+    <row r="15" spans="1:37" ht="18" customHeight="1">
+      <c r="A15" s="170"/>
       <c r="B15" s="14"/>
-      <c r="C15" s="81">
+      <c r="C15" s="79">
         <v>43781</v>
       </c>
-      <c r="D15" s="82">
+      <c r="D15" s="80">
         <v>25</v>
       </c>
-      <c r="E15" s="83">
+      <c r="E15" s="81">
         <f t="shared" si="1"/>
         <v>22.399999999999984</v>
       </c>
       <c r="F15" s="15"/>
       <c r="X15" s="35"/>
       <c r="Y15" s="43" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="Z15" s="36">
         <v>43774</v>
       </c>
       <c r="AA15" s="14"/>
       <c r="AE15" s="27"/>
-      <c r="AF15" s="71"/>
-      <c r="AG15" s="131"/>
-      <c r="AH15" s="133"/>
+      <c r="AF15" s="69"/>
+      <c r="AG15" s="125"/>
+      <c r="AH15" s="127"/>
       <c r="AI15" s="4"/>
     </row>
-    <row r="16" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="172"/>
+    <row r="16" spans="1:37" ht="18" customHeight="1">
+      <c r="A16" s="170"/>
       <c r="B16" s="14"/>
-      <c r="C16" s="81">
+      <c r="C16" s="79">
         <v>43782</v>
       </c>
-      <c r="D16" s="82">
+      <c r="D16" s="80">
         <v>21</v>
       </c>
-      <c r="E16" s="83">
+      <c r="E16" s="81">
         <f t="shared" si="1"/>
         <v>18.799999999999983</v>
       </c>
       <c r="F16" s="15"/>
       <c r="X16" s="35"/>
       <c r="Y16" s="43" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="Z16" s="37" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="AA16" s="14"/>
       <c r="AE16" s="27"/>
-      <c r="AF16" s="71"/>
+      <c r="AF16" s="69"/>
       <c r="AG16" s="52"/>
-      <c r="AH16" s="133"/>
+      <c r="AH16" s="127"/>
       <c r="AI16" s="4"/>
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
     </row>
-    <row r="17" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="172"/>
+    <row r="17" spans="1:37" ht="18" customHeight="1">
+      <c r="A17" s="170"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="81">
+      <c r="C17" s="79">
         <v>43783</v>
       </c>
-      <c r="D17" s="82">
+      <c r="D17" s="80">
         <v>18</v>
       </c>
-      <c r="E17" s="83">
+      <c r="E17" s="81">
         <f t="shared" si="1"/>
         <v>15.199999999999983</v>
       </c>
       <c r="F17" s="15"/>
       <c r="X17" s="35"/>
       <c r="Y17" s="43" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="Z17" s="61" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AA17" s="14"/>
       <c r="AE17" s="27"/>
-      <c r="AF17" s="130"/>
+      <c r="AF17" s="124"/>
       <c r="AG17" s="52"/>
-      <c r="AH17" s="123"/>
+      <c r="AH17" s="117"/>
       <c r="AI17" s="4"/>
       <c r="AJ17" s="4"/>
       <c r="AK17" s="4"/>
     </row>
-    <row r="18" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="172"/>
+    <row r="18" spans="1:37" ht="18" customHeight="1">
+      <c r="A18" s="170"/>
       <c r="B18" s="14"/>
-      <c r="C18" s="81">
+      <c r="C18" s="79">
         <v>43784</v>
       </c>
-      <c r="D18" s="82">
+      <c r="D18" s="80">
         <v>14</v>
       </c>
-      <c r="E18" s="90">
+      <c r="E18" s="88">
         <f t="shared" si="1"/>
         <v>11.599999999999984</v>
       </c>
@@ -8513,23 +8517,23 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="47"/>
       <c r="AE18" s="27"/>
-      <c r="AF18" s="132"/>
+      <c r="AF18" s="126"/>
       <c r="AG18" s="52"/>
-      <c r="AH18" s="134"/>
+      <c r="AH18" s="128"/>
       <c r="AI18" s="4"/>
       <c r="AJ18" s="4"/>
       <c r="AK18" s="4"/>
     </row>
-    <row r="19" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="173"/>
+    <row r="19" spans="1:37" ht="18" customHeight="1">
+      <c r="A19" s="171"/>
       <c r="B19" s="30"/>
-      <c r="C19" s="78">
+      <c r="C19" s="76">
         <v>43785</v>
       </c>
-      <c r="D19" s="79">
+      <c r="D19" s="77">
         <v>11</v>
       </c>
-      <c r="E19" s="80">
+      <c r="E19" s="78">
         <f t="shared" si="1"/>
         <v>7.999999999999984</v>
       </c>
@@ -8537,23 +8541,23 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="8"/>
       <c r="AE19" s="27"/>
-      <c r="AF19" s="132"/>
-      <c r="AG19" s="131"/>
-      <c r="AH19" s="133"/>
+      <c r="AF19" s="126"/>
+      <c r="AG19" s="125"/>
+      <c r="AH19" s="127"/>
       <c r="AI19" s="4"/>
       <c r="AJ19" s="4"/>
       <c r="AK19" s="4"/>
     </row>
-    <row r="20" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="173"/>
+    <row r="20" spans="1:37" ht="18" customHeight="1">
+      <c r="A20" s="171"/>
       <c r="B20" s="14"/>
-      <c r="C20" s="81">
+      <c r="C20" s="79">
         <v>43786</v>
       </c>
-      <c r="D20" s="82">
+      <c r="D20" s="80">
         <v>7</v>
       </c>
-      <c r="E20" s="83">
+      <c r="E20" s="81">
         <f t="shared" si="1"/>
         <v>4.3999999999999844</v>
       </c>
@@ -8561,92 +8565,91 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="9"/>
       <c r="AE20" s="27"/>
-      <c r="AF20" s="132"/>
-      <c r="AG20" s="122"/>
-      <c r="AH20" s="123"/>
+      <c r="AF20" s="126"/>
+      <c r="AG20" s="116"/>
+      <c r="AH20" s="117"/>
       <c r="AI20" s="4"/>
     </row>
-    <row r="21" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="173"/>
+    <row r="21" spans="1:37" ht="18" customHeight="1" thickBot="1">
+      <c r="A21" s="171"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="78">
+      <c r="C21" s="76">
         <v>43787</v>
       </c>
-      <c r="D21" s="79">
+      <c r="D21" s="77">
         <v>4</v>
       </c>
-      <c r="E21" s="80">
-        <f t="shared" si="1"/>
-        <v>0.79999999999998428</v>
+      <c r="E21" s="78">
+        <v>1</v>
       </c>
       <c r="F21" s="16"/>
-      <c r="X21" s="170" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y21" s="170"/>
-      <c r="Z21" s="170"/>
-      <c r="AA21" s="170"/>
+      <c r="X21" s="166" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y21" s="166"/>
+      <c r="Z21" s="166"/>
+      <c r="AA21" s="166"/>
       <c r="AE21" s="4"/>
-      <c r="AF21" s="124"/>
-      <c r="AG21" s="123"/>
-      <c r="AH21" s="123"/>
+      <c r="AF21" s="118"/>
+      <c r="AG21" s="117"/>
+      <c r="AH21" s="117"/>
       <c r="AI21" s="4"/>
     </row>
-    <row r="22" spans="1:37" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="173"/>
+    <row r="22" spans="1:37" ht="18" customHeight="1" thickTop="1">
+      <c r="A22" s="171"/>
       <c r="B22" s="14"/>
-      <c r="C22" s="81">
+      <c r="C22" s="79">
         <v>43788</v>
       </c>
-      <c r="D22" s="82">
+      <c r="D22" s="80">
         <v>1</v>
       </c>
-      <c r="E22" s="83">
+      <c r="E22" s="81">
         <v>0</v>
       </c>
       <c r="F22" s="15"/>
       <c r="X22" s="30"/>
       <c r="Y22" s="48" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="Z22" s="34">
         <v>43778</v>
       </c>
       <c r="AA22" s="30"/>
       <c r="AE22" s="4"/>
-      <c r="AF22" s="125"/>
-      <c r="AG22" s="125"/>
-      <c r="AH22" s="125"/>
+      <c r="AF22" s="119"/>
+      <c r="AG22" s="119"/>
+      <c r="AH22" s="119"/>
       <c r="AI22" s="4"/>
     </row>
-    <row r="23" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="173"/>
+    <row r="23" spans="1:37" ht="18" customHeight="1">
+      <c r="A23" s="171"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="84">
+      <c r="C23" s="82">
         <v>43789</v>
       </c>
-      <c r="D23" s="85">
+      <c r="D23" s="83">
         <v>0</v>
       </c>
-      <c r="E23" s="86">
+      <c r="E23" s="84">
         <v>0</v>
       </c>
       <c r="F23" s="17"/>
       <c r="X23" s="30"/>
       <c r="Y23" s="48" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="Z23" s="34">
         <v>43784</v>
       </c>
       <c r="AA23" s="30"/>
-      <c r="AE23" s="125"/>
+      <c r="AE23" s="119"/>
       <c r="AF23" s="4"/>
       <c r="AG23" s="4"/>
-      <c r="AH23" s="73"/>
+      <c r="AH23" s="71"/>
       <c r="AI23" s="4"/>
     </row>
-    <row r="24" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" ht="18" customHeight="1">
       <c r="B24" s="18"/>
       <c r="C24" s="22"/>
       <c r="D24" s="26"/>
@@ -8654,50 +8657,50 @@
       <c r="F24" s="11"/>
       <c r="X24" s="30"/>
       <c r="Y24" s="48" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="Z24" s="49" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="AA24" s="30"/>
-      <c r="AE24" s="74"/>
+      <c r="AE24" s="72"/>
       <c r="AF24" s="4"/>
       <c r="AG24" s="4"/>
-      <c r="AH24" s="73"/>
+      <c r="AH24" s="71"/>
       <c r="AI24" s="4"/>
     </row>
-    <row r="25" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" ht="18" customHeight="1">
       <c r="C25" s="13"/>
       <c r="X25" s="30"/>
       <c r="Y25" s="48" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="Z25" s="61" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AA25" s="30"/>
-      <c r="AE25" s="72"/>
+      <c r="AE25" s="70"/>
       <c r="AF25" s="4"/>
       <c r="AG25" s="4"/>
-      <c r="AH25" s="73"/>
+      <c r="AH25" s="71"/>
       <c r="AI25" s="4"/>
     </row>
-    <row r="26" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" ht="18" customHeight="1">
       <c r="C26" s="13"/>
       <c r="Y26" s="44"/>
       <c r="Z26" s="8"/>
-      <c r="AE26" s="72"/>
+      <c r="AE26" s="70"/>
       <c r="AF26" s="4"/>
       <c r="AG26" s="4"/>
-      <c r="AH26" s="73"/>
+      <c r="AH26" s="71"/>
       <c r="AI26" s="4"/>
     </row>
-    <row r="27" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" ht="18" customHeight="1">
       <c r="B27" s="4"/>
-      <c r="C27" s="136"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -8715,12 +8718,12 @@
       <c r="AF27" s="4"/>
       <c r="AG27" s="4"/>
     </row>
-    <row r="28" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" ht="18" customHeight="1">
       <c r="B28" s="4"/>
-      <c r="C28" s="136"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -8732,19 +8735,19 @@
       <c r="R28" s="45"/>
       <c r="S28" s="45"/>
       <c r="T28" s="45"/>
-      <c r="AE28" s="72"/>
+      <c r="AE28" s="70"/>
       <c r="AF28" s="4"/>
     </row>
-    <row r="29" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:37" ht="18" customHeight="1" thickBot="1">
       <c r="B29" s="4"/>
-      <c r="C29" s="135"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="135"/>
-      <c r="G29" s="135"/>
-      <c r="H29" s="135"/>
-      <c r="I29" s="135"/>
-      <c r="J29" s="135"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="129"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="129"/>
+      <c r="J29" s="129"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="P29" s="45"/>
@@ -8752,24 +8755,24 @@
       <c r="R29" s="45"/>
       <c r="S29" s="45"/>
       <c r="T29" s="45"/>
-      <c r="X29" s="170" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y29" s="170"/>
-      <c r="Z29" s="170"/>
-      <c r="AA29" s="170"/>
+      <c r="X29" s="166" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y29" s="166"/>
+      <c r="Z29" s="166"/>
+      <c r="AA29" s="166"/>
       <c r="AE29" s="46"/>
     </row>
-    <row r="30" spans="1:37" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" ht="18" customHeight="1" thickTop="1">
       <c r="B30" s="4"/>
-      <c r="C30" s="135"/>
-      <c r="D30" s="135"/>
-      <c r="E30" s="135"/>
-      <c r="F30" s="135"/>
-      <c r="G30" s="135"/>
-      <c r="H30" s="135"/>
-      <c r="I30" s="135"/>
-      <c r="J30" s="135"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="129"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="129"/>
+      <c r="I30" s="129"/>
+      <c r="J30" s="129"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="P30" s="45"/>
@@ -8779,7 +8782,7 @@
       <c r="T30" s="45"/>
       <c r="X30" s="30"/>
       <c r="Y30" s="48" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="Z30" s="34">
         <v>43785</v>
@@ -8787,16 +8790,16 @@
       <c r="AA30" s="30"/>
       <c r="AE30" s="46"/>
     </row>
-    <row r="31" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" ht="18" customHeight="1">
       <c r="B31" s="4"/>
-      <c r="C31" s="135"/>
-      <c r="D31" s="135"/>
-      <c r="E31" s="135"/>
-      <c r="F31" s="135"/>
-      <c r="G31" s="135"/>
-      <c r="H31" s="135"/>
-      <c r="I31" s="135"/>
-      <c r="J31" s="135"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="129"/>
+      <c r="I31" s="129"/>
+      <c r="J31" s="129"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="P31" s="45"/>
@@ -8806,7 +8809,7 @@
       <c r="T31" s="45"/>
       <c r="X31" s="14"/>
       <c r="Y31" s="43" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="Z31" s="36">
         <v>43788</v>
@@ -8815,16 +8818,16 @@
       <c r="AB31" s="4"/>
       <c r="AE31" s="46"/>
     </row>
-    <row r="32" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" ht="18" customHeight="1">
       <c r="B32" s="4"/>
-      <c r="C32" s="135"/>
-      <c r="D32" s="135"/>
-      <c r="E32" s="135"/>
-      <c r="F32" s="135"/>
-      <c r="G32" s="135"/>
-      <c r="H32" s="135"/>
-      <c r="I32" s="135"/>
-      <c r="J32" s="135"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="129"/>
+      <c r="H32" s="129"/>
+      <c r="I32" s="129"/>
+      <c r="J32" s="129"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="P32" s="45"/>
@@ -8834,25 +8837,25 @@
       <c r="T32" s="45"/>
       <c r="X32" s="30"/>
       <c r="Y32" s="48" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="Z32" s="49" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AA32" s="30"/>
       <c r="AB32" s="4"/>
       <c r="AE32" s="46"/>
     </row>
-    <row r="33" spans="2:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:31" ht="18" customHeight="1">
       <c r="B33" s="4"/>
-      <c r="C33" s="135"/>
-      <c r="D33" s="135"/>
-      <c r="E33" s="135"/>
-      <c r="F33" s="135"/>
-      <c r="G33" s="135"/>
-      <c r="H33" s="135"/>
-      <c r="I33" s="135"/>
-      <c r="J33" s="135"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="129"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="129"/>
+      <c r="G33" s="129"/>
+      <c r="H33" s="129"/>
+      <c r="I33" s="129"/>
+      <c r="J33" s="129"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="P33" s="45"/>
@@ -8862,24 +8865,24 @@
       <c r="T33" s="45"/>
       <c r="X33" s="14"/>
       <c r="Y33" s="43" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="Z33" s="61" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AA33" s="14"/>
       <c r="AE33" s="46"/>
     </row>
-    <row r="34" spans="2:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:31" ht="18" customHeight="1">
       <c r="B34" s="4"/>
-      <c r="C34" s="135"/>
-      <c r="D34" s="135"/>
-      <c r="E34" s="135"/>
-      <c r="F34" s="135"/>
-      <c r="G34" s="135"/>
-      <c r="H34" s="135"/>
-      <c r="I34" s="135"/>
-      <c r="J34" s="135"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="129"/>
+      <c r="E34" s="129"/>
+      <c r="F34" s="129"/>
+      <c r="G34" s="129"/>
+      <c r="H34" s="129"/>
+      <c r="I34" s="129"/>
+      <c r="J34" s="129"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="P34" s="45"/>
@@ -8891,12 +8894,12 @@
       <c r="Z34" s="8"/>
       <c r="AE34" s="46"/>
     </row>
-    <row r="35" spans="2:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:31" ht="18" customHeight="1">
       <c r="B35" s="4"/>
-      <c r="C35" s="136"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
+      <c r="C35" s="130"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
@@ -8912,7 +8915,7 @@
       <c r="Z35" s="8"/>
       <c r="AE35" s="46"/>
     </row>
-    <row r="36" spans="2:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:31" ht="18" customHeight="1">
       <c r="C36" s="13"/>
       <c r="P36" s="45"/>
       <c r="Q36" s="45"/>
@@ -8921,81 +8924,80 @@
       <c r="T36" s="45"/>
       <c r="AE36" s="46"/>
     </row>
-    <row r="37" spans="2:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:31" ht="18" customHeight="1">
       <c r="P37" s="45"/>
       <c r="Q37" s="45"/>
       <c r="R37" s="45"/>
       <c r="S37" s="45"/>
       <c r="T37" s="45"/>
-      <c r="W37" s="64"/>
-      <c r="X37" s="137"/>
-      <c r="Y37" s="137"/>
-      <c r="Z37" s="137"/>
-      <c r="AA37" s="137"/>
-      <c r="AB37" s="64"/>
-    </row>
-    <row r="38" spans="2:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W37" s="62"/>
+      <c r="X37" s="145"/>
+      <c r="Y37" s="145"/>
+      <c r="Z37" s="145"/>
+      <c r="AA37" s="145"/>
+      <c r="AB37" s="62"/>
+    </row>
+    <row r="38" spans="2:31" ht="18" customHeight="1">
       <c r="P38" s="45"/>
       <c r="Q38" s="45"/>
       <c r="R38" s="45"/>
       <c r="S38" s="45"/>
       <c r="T38" s="45"/>
-      <c r="W38" s="64"/>
-      <c r="X38" s="64"/>
-      <c r="Y38" s="65"/>
-      <c r="Z38" s="66"/>
-      <c r="AA38" s="64"/>
-      <c r="AB38" s="64"/>
-    </row>
-    <row r="39" spans="2:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W39" s="64"/>
-      <c r="X39" s="64"/>
-      <c r="Y39" s="65"/>
-      <c r="Z39" s="66"/>
-      <c r="AA39" s="64"/>
-      <c r="AB39" s="64"/>
-    </row>
-    <row r="40" spans="2:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W40" s="64"/>
-      <c r="X40" s="64"/>
-      <c r="Y40" s="65"/>
-      <c r="Z40" s="67"/>
-      <c r="AA40" s="64"/>
-      <c r="AB40" s="64"/>
-    </row>
-    <row r="41" spans="2:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W41" s="64"/>
-      <c r="X41" s="64"/>
-      <c r="Y41" s="65"/>
-      <c r="Z41" s="68"/>
-      <c r="AA41" s="64"/>
-      <c r="AB41" s="64"/>
-    </row>
-    <row r="42" spans="2:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W42" s="64"/>
-      <c r="X42" s="64"/>
-      <c r="Y42" s="64"/>
-      <c r="Z42" s="67"/>
-      <c r="AA42" s="64"/>
-      <c r="AB42" s="64"/>
-    </row>
-    <row r="43" spans="2:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W43" s="64"/>
-      <c r="X43" s="64"/>
-      <c r="Y43" s="64"/>
-      <c r="Z43" s="67"/>
-      <c r="AA43" s="64"/>
-      <c r="AB43" s="64"/>
-    </row>
-    <row r="44" spans="2:31" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="W38" s="62"/>
+      <c r="X38" s="62"/>
+      <c r="Y38" s="63"/>
+      <c r="Z38" s="64"/>
+      <c r="AA38" s="62"/>
+      <c r="AB38" s="62"/>
+    </row>
+    <row r="39" spans="2:31" ht="18" customHeight="1">
+      <c r="W39" s="62"/>
+      <c r="X39" s="62"/>
+      <c r="Y39" s="63"/>
+      <c r="Z39" s="64"/>
+      <c r="AA39" s="62"/>
+      <c r="AB39" s="62"/>
+    </row>
+    <row r="40" spans="2:31" ht="18" customHeight="1">
+      <c r="W40" s="62"/>
+      <c r="X40" s="62"/>
+      <c r="Y40" s="63"/>
+      <c r="Z40" s="65"/>
+      <c r="AA40" s="62"/>
+      <c r="AB40" s="62"/>
+    </row>
+    <row r="41" spans="2:31" ht="18" customHeight="1">
+      <c r="W41" s="62"/>
+      <c r="X41" s="62"/>
+      <c r="Y41" s="63"/>
+      <c r="Z41" s="66"/>
+      <c r="AA41" s="62"/>
+      <c r="AB41" s="62"/>
+    </row>
+    <row r="42" spans="2:31" ht="18" customHeight="1">
+      <c r="W42" s="62"/>
+      <c r="X42" s="62"/>
+      <c r="Y42" s="62"/>
+      <c r="Z42" s="65"/>
+      <c r="AA42" s="62"/>
+      <c r="AB42" s="62"/>
+    </row>
+    <row r="43" spans="2:31" ht="18" customHeight="1">
+      <c r="W43" s="62"/>
+      <c r="X43" s="62"/>
+      <c r="Y43" s="62"/>
+      <c r="Z43" s="65"/>
+      <c r="AA43" s="62"/>
+      <c r="AB43" s="62"/>
+    </row>
+    <row r="44" spans="2:31" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:AI1"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AD3:AH3"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="AH7:AH8"/>
+    <mergeCell ref="X21:AA21"/>
+    <mergeCell ref="X29:AA29"/>
     <mergeCell ref="X37:AA37"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A12:A18"/>
@@ -9006,11 +9008,12 @@
     <mergeCell ref="AA8:AB8"/>
     <mergeCell ref="AA9:AB9"/>
     <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="AH7:AH8"/>
-    <mergeCell ref="X21:AA21"/>
-    <mergeCell ref="X29:AA29"/>
+    <mergeCell ref="B1:AI1"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AD3:AH3"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AD4:AE4"/>
   </mergeCells>
   <conditionalFormatting sqref="AG5:AG7 AG9:AG21">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="high">
